--- a/docs/注音符號設計.xlsx
+++ b/docs/注音符號設計.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{075C7A65-BBA9-4229-A6EB-33BAC79EF366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556D01E7-0C59-4D06-8BD1-9F62E6D63106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="768" xr2:uid="{11CF7DAA-E8A4-4CA6-A169-0B28DEFAE718}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" tabRatio="768" activeTab="14" xr2:uid="{11CF7DAA-E8A4-4CA6-A169-0B28DEFAE718}"/>
   </bookViews>
   <sheets>
     <sheet name="聲母發音表" sheetId="19" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <sheet name="聲韻母" sheetId="2" r:id="rId15"/>
     <sheet name="說明" sheetId="5" r:id="rId16"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId17"/>
-  </externalReferences>
   <definedNames>
     <definedName name="方音符號">#REF!</definedName>
     <definedName name="字典編碼">#REF!</definedName>
@@ -8996,14 +8993,119 @@
     <xf numFmtId="176" fontId="145" fillId="11" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="24" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="154" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="158" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="162" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="153" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="24" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="146" fillId="24" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="157" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="16" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9018,6 +9120,126 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9039,128 +9261,56 @@
     <xf numFmtId="9" fontId="43" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="12" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="83" fillId="13" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="13" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9171,15 +9321,6 @@
     <xf numFmtId="0" fontId="69" fillId="13" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="12" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="69" fillId="13" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9189,36 +9330,6 @@
     <xf numFmtId="9" fontId="69" fillId="13" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="13" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="13" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -9231,6 +9342,81 @@
     <xf numFmtId="0" fontId="44" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9240,40 +9426,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9285,60 +9444,12 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="69" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9348,6 +9459,48 @@
     <xf numFmtId="0" fontId="69" fillId="12" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="69" fillId="13" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -9356,162 +9509,6 @@
     </xf>
     <xf numFmtId="0" fontId="69" fillId="13" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="83" fillId="13" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="24" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="146" fillId="24" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="24" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="147" fillId="7" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="148" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="149" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="146" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="152" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="153" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="154" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="19" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="156" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="158" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="159" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="16" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="157" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="161" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="160" fillId="16" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="162" fillId="0" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="163" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="27" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="25" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="29" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="164" fillId="16" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -10161,54 +10158,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="RIME對映編碼 (Schema解析)"/>
-      <sheetName val=" 河洛方音鍵盤設計"/>
-      <sheetName val="RIME解析(BoPoMoFo)"/>
-      <sheetName val="RIME對映編碼 (BoPoMoFo)"/>
-      <sheetName val="RIME對映編碼 (萌台語)"/>
-      <sheetName val="RIME對映編碼 (台語方音)"/>
-      <sheetName val="RIME對映編碼 (注音符號)"/>
-      <sheetName val="RIME對映編碼 (注音符號V2)"/>
-      <sheetName val="RIME對映編碼 (台語方音V3)"/>
-      <sheetName val="注音符號字典編碼"/>
-      <sheetName val="RIME對映編碼 (原設計)"/>
-      <sheetName val="RIME指令 (與漢字拼音相容版)"/>
-      <sheetName val="工作表2"/>
-      <sheetName val=" 河洛方音鍵盤設計 (V1)"/>
-      <sheetName val="RIME對映編碼"/>
-      <sheetName val="RIME對映編碼 (河洛方音)"/>
-      <sheetName val="鍵盤圖"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9CC570C-6177-49D4-910D-3F8BCEF873D2}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="5">
   <autoFilter ref="AV8:AZ58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
@@ -10514,899 +10463,849 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DABD72E2-2DE6-4368-BA9C-6F4BF725A948}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="21" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="1" style="51" customWidth="1"/>
-    <col min="2" max="2" width="22.125" style="510" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="510" customWidth="1"/>
-    <col min="4" max="4" width="23.625" style="510" customWidth="1"/>
-    <col min="5" max="5" width="22.375" style="510" customWidth="1"/>
-    <col min="6" max="6" width="33.625" style="510" customWidth="1"/>
-    <col min="7" max="7" width="22.375" style="510" customWidth="1"/>
-    <col min="8" max="8" width="33.625" style="510" customWidth="1"/>
-    <col min="9" max="9" width="22.375" style="510" customWidth="1"/>
-    <col min="10" max="10" width="33.625" style="510" customWidth="1"/>
-    <col min="11" max="11" width="22.375" style="510" customWidth="1"/>
-    <col min="12" max="12" width="33.625" style="510" customWidth="1"/>
-    <col min="13" max="13" width="22.375" style="510" customWidth="1"/>
-    <col min="14" max="14" width="33.625" style="510" customWidth="1"/>
-    <col min="15" max="15" width="22.375" style="510" customWidth="1"/>
-    <col min="16" max="16" width="33.625" style="510" customWidth="1"/>
+    <col min="2" max="2" width="22.125" style="375" customWidth="1"/>
+    <col min="3" max="4" width="22" style="375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" style="375" customWidth="1"/>
+    <col min="6" max="6" width="33.625" style="375" customWidth="1"/>
+    <col min="7" max="7" width="22.375" style="375" customWidth="1"/>
+    <col min="8" max="8" width="33.625" style="375" customWidth="1"/>
+    <col min="9" max="9" width="22.375" style="375" customWidth="1"/>
+    <col min="10" max="10" width="33.625" style="375" customWidth="1"/>
+    <col min="11" max="11" width="22.375" style="375" customWidth="1"/>
+    <col min="12" max="12" width="33.625" style="375" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="375" customWidth="1"/>
+    <col min="14" max="14" width="33.625" style="375" customWidth="1"/>
+    <col min="15" max="15" width="22.375" style="375" customWidth="1"/>
+    <col min="16" max="16" width="33.625" style="375" customWidth="1"/>
     <col min="17" max="16384" width="13.625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" s="51" customFormat="1" ht="9" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B1" s="510"/>
-      <c r="C1" s="510"/>
-      <c r="D1" s="510"/>
-      <c r="E1" s="510"/>
-      <c r="F1" s="510"/>
-      <c r="G1" s="510"/>
-      <c r="H1" s="510"/>
-      <c r="I1" s="510"/>
-      <c r="J1" s="510"/>
-      <c r="K1" s="510"/>
-      <c r="L1" s="510"/>
-      <c r="M1" s="510"/>
-      <c r="N1" s="510"/>
-      <c r="O1" s="510"/>
-      <c r="P1" s="510"/>
-    </row>
-    <row r="2" spans="2:16" s="548" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="549" t="s">
+    <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
+    <row r="2" spans="2:16" s="392" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B2" s="414" t="s">
         <v>1313</v>
       </c>
-      <c r="C2" s="549"/>
-      <c r="D2" s="549"/>
-      <c r="E2" s="549" t="s">
+      <c r="C2" s="414"/>
+      <c r="D2" s="414"/>
+      <c r="E2" s="414" t="s">
         <v>1305</v>
       </c>
-      <c r="F2" s="549"/>
-      <c r="G2" s="549" t="s">
+      <c r="F2" s="414"/>
+      <c r="G2" s="414" t="s">
         <v>1312</v>
       </c>
-      <c r="H2" s="549"/>
-      <c r="I2" s="549" t="s">
+      <c r="H2" s="414"/>
+      <c r="I2" s="414" t="s">
         <v>1311</v>
       </c>
-      <c r="J2" s="549"/>
-      <c r="K2" s="549" t="s">
+      <c r="J2" s="414"/>
+      <c r="K2" s="414" t="s">
         <v>1310</v>
       </c>
-      <c r="L2" s="549"/>
-      <c r="M2" s="549"/>
-      <c r="N2" s="549"/>
-      <c r="O2" s="549" t="s">
+      <c r="L2" s="414"/>
+      <c r="M2" s="414"/>
+      <c r="N2" s="414"/>
+      <c r="O2" s="414" t="s">
         <v>1301</v>
       </c>
-      <c r="P2" s="549"/>
-    </row>
-    <row r="3" spans="2:16" s="548" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="549" t="s">
+      <c r="P2" s="414"/>
+    </row>
+    <row r="3" spans="2:16" s="392" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B3" s="414" t="s">
         <v>1309</v>
       </c>
-      <c r="C3" s="549"/>
-      <c r="D3" s="549"/>
-      <c r="E3" s="549" t="s">
+      <c r="C3" s="414"/>
+      <c r="D3" s="414"/>
+      <c r="E3" s="414" t="s">
         <v>1305</v>
       </c>
-      <c r="F3" s="549"/>
-      <c r="G3" s="549" t="s">
+      <c r="F3" s="414"/>
+      <c r="G3" s="414" t="s">
         <v>1308</v>
       </c>
-      <c r="H3" s="549"/>
-      <c r="I3" s="549" t="s">
+      <c r="H3" s="414"/>
+      <c r="I3" s="414" t="s">
         <v>1303</v>
       </c>
-      <c r="J3" s="549"/>
-      <c r="K3" s="549" t="s">
+      <c r="J3" s="414"/>
+      <c r="K3" s="414" t="s">
         <v>1307</v>
       </c>
-      <c r="L3" s="549"/>
-      <c r="M3" s="549"/>
-      <c r="N3" s="549"/>
-      <c r="O3" s="549" t="s">
+      <c r="L3" s="414"/>
+      <c r="M3" s="414"/>
+      <c r="N3" s="414"/>
+      <c r="O3" s="414" t="s">
         <v>1301</v>
       </c>
-      <c r="P3" s="549"/>
-    </row>
-    <row r="4" spans="2:16" s="548" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="549" t="s">
+      <c r="P3" s="414"/>
+    </row>
+    <row r="4" spans="2:16" s="392" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B4" s="414" t="s">
         <v>1306</v>
       </c>
-      <c r="C4" s="549"/>
-      <c r="D4" s="549"/>
-      <c r="E4" s="549" t="s">
+      <c r="C4" s="414"/>
+      <c r="D4" s="414"/>
+      <c r="E4" s="414" t="s">
         <v>1305</v>
       </c>
-      <c r="F4" s="549"/>
-      <c r="G4" s="549" t="s">
+      <c r="F4" s="414"/>
+      <c r="G4" s="414" t="s">
         <v>1304</v>
       </c>
-      <c r="H4" s="549"/>
-      <c r="I4" s="549" t="s">
+      <c r="H4" s="414"/>
+      <c r="I4" s="414" t="s">
         <v>1303</v>
       </c>
-      <c r="J4" s="549"/>
-      <c r="K4" s="549" t="s">
+      <c r="J4" s="414"/>
+      <c r="K4" s="414" t="s">
         <v>1302</v>
       </c>
-      <c r="L4" s="549"/>
-      <c r="M4" s="549"/>
-      <c r="N4" s="549"/>
-      <c r="O4" s="549" t="s">
+      <c r="L4" s="414"/>
+      <c r="M4" s="414"/>
+      <c r="N4" s="414"/>
+      <c r="O4" s="414" t="s">
         <v>1301</v>
       </c>
-      <c r="P4" s="549"/>
-    </row>
-    <row r="5" spans="2:16" s="548" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="549" t="s">
+      <c r="P4" s="414"/>
+    </row>
+    <row r="5" spans="2:16" s="392" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
+      <c r="B5" s="414" t="s">
         <v>1300</v>
       </c>
-      <c r="C5" s="549"/>
-      <c r="D5" s="549"/>
-      <c r="E5" s="549" t="s">
+      <c r="C5" s="414"/>
+      <c r="D5" s="414"/>
+      <c r="E5" s="414" t="s">
         <v>1295</v>
       </c>
-      <c r="F5" s="549"/>
-      <c r="G5" s="549" t="s">
+      <c r="F5" s="414"/>
+      <c r="G5" s="414" t="s">
         <v>1298</v>
       </c>
-      <c r="H5" s="549"/>
-      <c r="I5" s="549" t="s">
+      <c r="H5" s="414"/>
+      <c r="I5" s="414" t="s">
         <v>1299</v>
       </c>
-      <c r="J5" s="549"/>
-      <c r="K5" s="549" t="s">
+      <c r="J5" s="414"/>
+      <c r="K5" s="414" t="s">
         <v>1298</v>
       </c>
-      <c r="L5" s="549"/>
-      <c r="M5" s="549"/>
-      <c r="N5" s="549"/>
-      <c r="O5" s="549" t="s">
+      <c r="L5" s="414"/>
+      <c r="M5" s="414"/>
+      <c r="N5" s="414"/>
+      <c r="O5" s="414" t="s">
         <v>1297</v>
       </c>
-      <c r="P5" s="549"/>
-    </row>
-    <row r="6" spans="2:16" s="51" customFormat="1" ht="9" customHeight="1" collapsed="1">
-      <c r="B6" s="510"/>
-      <c r="C6" s="510"/>
-      <c r="D6" s="510"/>
-      <c r="E6" s="510"/>
-      <c r="F6" s="510"/>
-      <c r="G6" s="510"/>
-      <c r="H6" s="510"/>
-      <c r="I6" s="510"/>
-      <c r="J6" s="510"/>
-      <c r="K6" s="510"/>
-      <c r="L6" s="510"/>
-      <c r="M6" s="510"/>
-      <c r="N6" s="510"/>
-      <c r="O6" s="510"/>
-      <c r="P6" s="510"/>
-    </row>
-    <row r="7" spans="2:16" s="51" customFormat="1" ht="69.95" customHeight="1">
-      <c r="B7" s="547" t="s">
+      <c r="P5" s="414"/>
+    </row>
+    <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
+    <row r="7" spans="2:16" ht="69.95" customHeight="1">
+      <c r="B7" s="409" t="s">
         <v>1296</v>
       </c>
-      <c r="C7" s="546"/>
-      <c r="D7" s="545"/>
-      <c r="E7" s="544" t="s">
+      <c r="C7" s="410"/>
+      <c r="D7" s="411"/>
+      <c r="E7" s="412" t="s">
         <v>1295</v>
       </c>
-      <c r="F7" s="543"/>
-      <c r="G7" s="540" t="s">
+      <c r="F7" s="413"/>
+      <c r="G7" s="403" t="s">
         <v>1294</v>
       </c>
-      <c r="H7" s="539"/>
-      <c r="I7" s="542" t="s">
+      <c r="H7" s="404"/>
+      <c r="I7" s="401" t="s">
         <v>1293</v>
       </c>
-      <c r="J7" s="541"/>
-      <c r="K7" s="540" t="s">
+      <c r="J7" s="402"/>
+      <c r="K7" s="403" t="s">
         <v>1292</v>
       </c>
-      <c r="L7" s="539"/>
-      <c r="M7" s="540" t="s">
+      <c r="L7" s="404"/>
+      <c r="M7" s="403" t="s">
         <v>1291</v>
       </c>
-      <c r="N7" s="539"/>
-      <c r="O7" s="540" t="s">
+      <c r="N7" s="404"/>
+      <c r="O7" s="403" t="s">
         <v>1290</v>
       </c>
-      <c r="P7" s="539"/>
-    </row>
-    <row r="8" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B8" s="525" t="s">
+      <c r="P7" s="404"/>
+    </row>
+    <row r="8" spans="2:16" ht="39" customHeight="1">
+      <c r="B8" s="393" t="s">
         <v>1289</v>
       </c>
-      <c r="C8" s="534" t="s">
+      <c r="C8" s="406" t="s">
         <v>1233</v>
       </c>
-      <c r="D8" s="536" t="s">
+      <c r="D8" s="407" t="s">
         <v>1260</v>
       </c>
-      <c r="E8" s="528" t="s">
+      <c r="E8" s="387" t="s">
         <v>804</v>
       </c>
-      <c r="F8" s="526" t="s">
+      <c r="F8" s="385" t="s">
         <v>804</v>
       </c>
-      <c r="G8" s="527" t="s">
+      <c r="G8" s="386" t="s">
         <v>1288</v>
       </c>
-      <c r="H8" s="526" t="s">
+      <c r="H8" s="385" t="s">
         <v>1288</v>
       </c>
-      <c r="I8" s="527" t="s">
+      <c r="I8" s="386" t="s">
         <v>1287</v>
       </c>
-      <c r="J8" s="526" t="s">
+      <c r="J8" s="385" t="s">
         <v>1287</v>
       </c>
-      <c r="K8" s="527"/>
-      <c r="L8" s="526"/>
-      <c r="M8" s="527"/>
-      <c r="N8" s="526"/>
-      <c r="O8" s="538" t="s">
+      <c r="K8" s="386"/>
+      <c r="L8" s="385"/>
+      <c r="M8" s="386"/>
+      <c r="N8" s="385"/>
+      <c r="O8" s="391" t="s">
         <v>1286</v>
       </c>
-      <c r="P8" s="537" t="s">
+      <c r="P8" s="390" t="s">
         <v>1285</v>
       </c>
     </row>
-    <row r="9" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B9" s="525"/>
-      <c r="C9" s="534"/>
-      <c r="D9" s="536"/>
-      <c r="E9" s="522" t="s">
+    <row r="9" spans="2:16" ht="39" customHeight="1">
+      <c r="B9" s="393"/>
+      <c r="C9" s="406"/>
+      <c r="D9" s="407"/>
+      <c r="E9" s="384" t="s">
         <v>1284</v>
       </c>
-      <c r="F9" s="520" t="s">
+      <c r="F9" s="382" t="s">
         <v>1283</v>
       </c>
-      <c r="G9" s="521" t="s">
+      <c r="G9" s="383" t="s">
         <v>1282</v>
       </c>
-      <c r="H9" s="520" t="s">
+      <c r="H9" s="382" t="s">
         <v>1281</v>
       </c>
-      <c r="I9" s="521" t="s">
+      <c r="I9" s="383" t="s">
         <v>1280</v>
       </c>
-      <c r="J9" s="520" t="s">
+      <c r="J9" s="382" t="s">
         <v>1279</v>
       </c>
-      <c r="K9" s="521"/>
-      <c r="L9" s="520"/>
-      <c r="M9" s="521"/>
-      <c r="N9" s="520"/>
-      <c r="O9" s="535" t="s">
+      <c r="K9" s="383"/>
+      <c r="L9" s="382"/>
+      <c r="M9" s="383"/>
+      <c r="N9" s="382"/>
+      <c r="O9" s="389" t="s">
         <v>1278</v>
       </c>
-      <c r="P9" s="520" t="s">
+      <c r="P9" s="382" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="10" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B10" s="525"/>
-      <c r="C10" s="534"/>
-      <c r="D10" s="532" t="s">
+    <row r="10" spans="2:16" ht="39" customHeight="1">
+      <c r="B10" s="393"/>
+      <c r="C10" s="406"/>
+      <c r="D10" s="405" t="s">
         <v>1251</v>
       </c>
-      <c r="E10" s="528" t="s">
+      <c r="E10" s="387" t="s">
         <v>1276</v>
       </c>
-      <c r="F10" s="526" t="s">
+      <c r="F10" s="385" t="s">
         <v>1276</v>
       </c>
-      <c r="G10" s="527" t="s">
+      <c r="G10" s="386" t="s">
         <v>1275</v>
       </c>
-      <c r="H10" s="526" t="s">
+      <c r="H10" s="385" t="s">
         <v>1275</v>
       </c>
-      <c r="I10" s="527" t="s">
+      <c r="I10" s="386" t="s">
         <v>1274</v>
       </c>
-      <c r="J10" s="526" t="s">
+      <c r="J10" s="385" t="s">
         <v>1274</v>
       </c>
-      <c r="K10" s="527"/>
-      <c r="L10" s="526"/>
-      <c r="M10" s="527"/>
-      <c r="N10" s="526"/>
-      <c r="O10" s="527"/>
-      <c r="P10" s="526"/>
-    </row>
-    <row r="11" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B11" s="525"/>
-      <c r="C11" s="534"/>
-      <c r="D11" s="532"/>
-      <c r="E11" s="522" t="s">
+      <c r="K10" s="386"/>
+      <c r="L10" s="385"/>
+      <c r="M10" s="386"/>
+      <c r="N10" s="385"/>
+      <c r="O10" s="386"/>
+      <c r="P10" s="385"/>
+    </row>
+    <row r="11" spans="2:16" ht="39" customHeight="1">
+      <c r="B11" s="393"/>
+      <c r="C11" s="406"/>
+      <c r="D11" s="405"/>
+      <c r="E11" s="384" t="s">
         <v>1273</v>
       </c>
-      <c r="F11" s="520" t="s">
+      <c r="F11" s="382" t="s">
         <v>1272</v>
       </c>
-      <c r="G11" s="521" t="s">
+      <c r="G11" s="383" t="s">
         <v>1271</v>
       </c>
-      <c r="H11" s="520" t="s">
+      <c r="H11" s="382" t="s">
         <v>1270</v>
       </c>
-      <c r="I11" s="521" t="s">
+      <c r="I11" s="383" t="s">
         <v>1269</v>
       </c>
-      <c r="J11" s="520" t="s">
+      <c r="J11" s="382" t="s">
         <v>1268</v>
       </c>
-      <c r="K11" s="521"/>
-      <c r="L11" s="520"/>
-      <c r="M11" s="521"/>
-      <c r="N11" s="520"/>
-      <c r="O11" s="521"/>
-      <c r="P11" s="520"/>
-    </row>
-    <row r="12" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B12" s="525"/>
-      <c r="C12" s="524" t="s">
+      <c r="K11" s="383"/>
+      <c r="L11" s="382"/>
+      <c r="M11" s="383"/>
+      <c r="N11" s="382"/>
+      <c r="O11" s="383"/>
+      <c r="P11" s="382"/>
+    </row>
+    <row r="12" spans="2:16" ht="39" customHeight="1">
+      <c r="B12" s="393"/>
+      <c r="C12" s="394" t="s">
         <v>1210</v>
       </c>
-      <c r="D12" s="533" t="s">
+      <c r="D12" s="408" t="s">
         <v>1209</v>
       </c>
-      <c r="E12" s="528" t="s">
+      <c r="E12" s="387" t="s">
         <v>1267</v>
       </c>
-      <c r="F12" s="526" t="s">
+      <c r="F12" s="385" t="s">
         <v>1267</v>
       </c>
-      <c r="G12" s="527"/>
-      <c r="H12" s="526"/>
-      <c r="I12" s="527" t="s">
+      <c r="G12" s="386"/>
+      <c r="H12" s="385"/>
+      <c r="I12" s="386" t="s">
         <v>1266</v>
       </c>
-      <c r="J12" s="526" t="s">
+      <c r="J12" s="385" t="s">
         <v>1266</v>
       </c>
-      <c r="K12" s="527"/>
-      <c r="L12" s="526"/>
-      <c r="M12" s="527"/>
-      <c r="N12" s="526"/>
-      <c r="O12" s="527"/>
-      <c r="P12" s="526"/>
-    </row>
-    <row r="13" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B13" s="525"/>
-      <c r="C13" s="524"/>
-      <c r="D13" s="533"/>
-      <c r="E13" s="522" t="s">
+      <c r="K12" s="386"/>
+      <c r="L12" s="385"/>
+      <c r="M12" s="386"/>
+      <c r="N12" s="385"/>
+      <c r="O12" s="386"/>
+      <c r="P12" s="385"/>
+    </row>
+    <row r="13" spans="2:16" ht="39" customHeight="1">
+      <c r="B13" s="393"/>
+      <c r="C13" s="394"/>
+      <c r="D13" s="408"/>
+      <c r="E13" s="384" t="s">
         <v>1265</v>
       </c>
-      <c r="F13" s="520" t="s">
+      <c r="F13" s="382" t="s">
         <v>1264</v>
       </c>
-      <c r="G13" s="521"/>
-      <c r="H13" s="520"/>
-      <c r="I13" s="521" t="s">
+      <c r="G13" s="383"/>
+      <c r="H13" s="382"/>
+      <c r="I13" s="383" t="s">
         <v>1263</v>
       </c>
-      <c r="J13" s="520" t="s">
+      <c r="J13" s="382" t="s">
         <v>1262</v>
       </c>
-      <c r="K13" s="521"/>
-      <c r="L13" s="520"/>
-      <c r="M13" s="521"/>
-      <c r="N13" s="520"/>
-      <c r="O13" s="521"/>
-      <c r="P13" s="520"/>
-    </row>
-    <row r="14" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B14" s="525" t="s">
+      <c r="K13" s="383"/>
+      <c r="L13" s="382"/>
+      <c r="M13" s="383"/>
+      <c r="N13" s="382"/>
+      <c r="O13" s="383"/>
+      <c r="P13" s="382"/>
+    </row>
+    <row r="14" spans="2:16" ht="39" customHeight="1">
+      <c r="B14" s="393" t="s">
         <v>1261</v>
       </c>
-      <c r="C14" s="530" t="s">
+      <c r="C14" s="399" t="s">
         <v>1233</v>
       </c>
-      <c r="D14" s="523" t="s">
+      <c r="D14" s="395" t="s">
         <v>1260</v>
       </c>
-      <c r="E14" s="528"/>
-      <c r="F14" s="526"/>
-      <c r="G14" s="527"/>
-      <c r="H14" s="526"/>
-      <c r="I14" s="527"/>
-      <c r="J14" s="526"/>
-      <c r="K14" s="527" t="s">
+      <c r="E14" s="387"/>
+      <c r="F14" s="385"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="385"/>
+      <c r="I14" s="386"/>
+      <c r="J14" s="385"/>
+      <c r="K14" s="386" t="s">
         <v>1259</v>
       </c>
-      <c r="L14" s="531" t="s">
+      <c r="L14" s="388" t="s">
         <v>1258</v>
       </c>
-      <c r="M14" s="527" t="s">
+      <c r="M14" s="386" t="s">
         <v>1257</v>
       </c>
-      <c r="N14" s="531" t="s">
+      <c r="N14" s="388" t="s">
         <v>1256</v>
       </c>
-      <c r="O14" s="527"/>
-      <c r="P14" s="526"/>
-    </row>
-    <row r="15" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B15" s="525"/>
-      <c r="C15" s="530"/>
-      <c r="D15" s="523"/>
-      <c r="E15" s="522"/>
-      <c r="F15" s="520"/>
-      <c r="G15" s="521"/>
-      <c r="H15" s="520"/>
-      <c r="I15" s="521"/>
-      <c r="J15" s="520"/>
-      <c r="K15" s="521" t="s">
+      <c r="O14" s="386"/>
+      <c r="P14" s="385"/>
+    </row>
+    <row r="15" spans="2:16" ht="39" customHeight="1">
+      <c r="B15" s="393"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="395"/>
+      <c r="E15" s="384"/>
+      <c r="F15" s="382"/>
+      <c r="G15" s="383"/>
+      <c r="H15" s="382"/>
+      <c r="I15" s="383"/>
+      <c r="J15" s="382"/>
+      <c r="K15" s="383" t="s">
         <v>1255</v>
       </c>
-      <c r="L15" s="520" t="s">
+      <c r="L15" s="382" t="s">
         <v>1254</v>
       </c>
-      <c r="M15" s="521" t="s">
+      <c r="M15" s="383" t="s">
         <v>1253</v>
       </c>
-      <c r="N15" s="520" t="s">
+      <c r="N15" s="382" t="s">
         <v>1252</v>
       </c>
-      <c r="O15" s="521"/>
-      <c r="P15" s="520"/>
-    </row>
-    <row r="16" spans="2:16" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B16" s="525"/>
-      <c r="C16" s="530"/>
-      <c r="D16" s="532" t="s">
+      <c r="O15" s="383"/>
+      <c r="P15" s="382"/>
+    </row>
+    <row r="16" spans="2:16" ht="39" customHeight="1">
+      <c r="B16" s="393"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="405" t="s">
         <v>1251</v>
       </c>
-      <c r="E16" s="528"/>
-      <c r="F16" s="526"/>
-      <c r="G16" s="527"/>
-      <c r="H16" s="526"/>
-      <c r="I16" s="527"/>
-      <c r="J16" s="526"/>
-      <c r="K16" s="527" t="s">
+      <c r="E16" s="387"/>
+      <c r="F16" s="385"/>
+      <c r="G16" s="386"/>
+      <c r="H16" s="385"/>
+      <c r="I16" s="386"/>
+      <c r="J16" s="385"/>
+      <c r="K16" s="386" t="s">
         <v>1250</v>
       </c>
-      <c r="L16" s="531" t="s">
+      <c r="L16" s="388" t="s">
         <v>1249</v>
       </c>
-      <c r="M16" s="527" t="s">
+      <c r="M16" s="386" t="s">
         <v>1248</v>
       </c>
-      <c r="N16" s="531" t="s">
+      <c r="N16" s="388" t="s">
         <v>1247</v>
       </c>
-      <c r="O16" s="527"/>
-      <c r="P16" s="526"/>
-    </row>
-    <row r="17" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B17" s="525"/>
-      <c r="C17" s="530"/>
-      <c r="D17" s="532"/>
-      <c r="E17" s="522"/>
-      <c r="F17" s="520"/>
-      <c r="G17" s="521"/>
-      <c r="H17" s="520"/>
-      <c r="I17" s="521"/>
-      <c r="J17" s="520"/>
-      <c r="K17" s="521" t="s">
+      <c r="O16" s="386"/>
+      <c r="P16" s="385"/>
+    </row>
+    <row r="17" spans="2:17" ht="39" customHeight="1">
+      <c r="B17" s="393"/>
+      <c r="C17" s="399"/>
+      <c r="D17" s="405"/>
+      <c r="E17" s="384"/>
+      <c r="F17" s="382"/>
+      <c r="G17" s="383"/>
+      <c r="H17" s="382"/>
+      <c r="I17" s="383"/>
+      <c r="J17" s="382"/>
+      <c r="K17" s="383" t="s">
         <v>1246</v>
       </c>
-      <c r="L17" s="520" t="s">
+      <c r="L17" s="382" t="s">
         <v>1245</v>
       </c>
-      <c r="M17" s="521" t="s">
+      <c r="M17" s="383" t="s">
         <v>1244</v>
       </c>
-      <c r="N17" s="520" t="s">
+      <c r="N17" s="382" t="s">
         <v>1243</v>
       </c>
-      <c r="O17" s="521"/>
-      <c r="P17" s="520"/>
-    </row>
-    <row r="18" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B18" s="525"/>
-      <c r="C18" s="524" t="s">
+      <c r="O17" s="383"/>
+      <c r="P17" s="382"/>
+    </row>
+    <row r="18" spans="2:17" ht="39" customHeight="1">
+      <c r="B18" s="393"/>
+      <c r="C18" s="394" t="s">
         <v>1210</v>
       </c>
-      <c r="D18" s="523" t="s">
+      <c r="D18" s="395" t="s">
         <v>1209</v>
       </c>
-      <c r="E18" s="528"/>
-      <c r="F18" s="526"/>
-      <c r="G18" s="527"/>
-      <c r="H18" s="526"/>
-      <c r="I18" s="527"/>
-      <c r="J18" s="526"/>
-      <c r="K18" s="527" t="s">
+      <c r="E18" s="387"/>
+      <c r="F18" s="385"/>
+      <c r="G18" s="386"/>
+      <c r="H18" s="385"/>
+      <c r="I18" s="386"/>
+      <c r="J18" s="385"/>
+      <c r="K18" s="386" t="s">
         <v>1242</v>
       </c>
-      <c r="L18" s="531" t="s">
+      <c r="L18" s="388" t="s">
         <v>1241</v>
       </c>
-      <c r="M18" s="527" t="s">
+      <c r="M18" s="386" t="s">
         <v>1240</v>
       </c>
-      <c r="N18" s="531" t="s">
+      <c r="N18" s="388" t="s">
         <v>1239</v>
       </c>
-      <c r="O18" s="527"/>
-      <c r="P18" s="526"/>
-    </row>
-    <row r="19" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B19" s="525"/>
-      <c r="C19" s="524"/>
-      <c r="D19" s="523"/>
-      <c r="E19" s="522"/>
-      <c r="F19" s="520"/>
-      <c r="G19" s="521"/>
-      <c r="H19" s="520"/>
-      <c r="I19" s="521"/>
-      <c r="J19" s="520"/>
-      <c r="K19" s="521" t="s">
+      <c r="O18" s="386"/>
+      <c r="P18" s="385"/>
+    </row>
+    <row r="19" spans="2:17" ht="39" customHeight="1">
+      <c r="B19" s="393"/>
+      <c r="C19" s="394"/>
+      <c r="D19" s="395"/>
+      <c r="E19" s="384"/>
+      <c r="F19" s="382"/>
+      <c r="G19" s="383"/>
+      <c r="H19" s="382"/>
+      <c r="I19" s="383"/>
+      <c r="J19" s="382"/>
+      <c r="K19" s="383" t="s">
         <v>1238</v>
       </c>
-      <c r="L19" s="520" t="s">
+      <c r="L19" s="382" t="s">
         <v>1237</v>
       </c>
-      <c r="M19" s="521" t="s">
+      <c r="M19" s="383" t="s">
         <v>1236</v>
       </c>
-      <c r="N19" s="520" t="s">
+      <c r="N19" s="382" t="s">
         <v>1235</v>
       </c>
-      <c r="O19" s="521"/>
-      <c r="P19" s="520"/>
-    </row>
-    <row r="20" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B20" s="525" t="s">
+      <c r="O19" s="383"/>
+      <c r="P19" s="382"/>
+    </row>
+    <row r="20" spans="2:17" ht="39" customHeight="1">
+      <c r="B20" s="393" t="s">
         <v>1234</v>
       </c>
-      <c r="C20" s="530" t="s">
+      <c r="C20" s="399" t="s">
         <v>1233</v>
       </c>
-      <c r="D20" s="523" t="s">
+      <c r="D20" s="395" t="s">
         <v>1209</v>
       </c>
-      <c r="E20" s="528"/>
-      <c r="F20" s="526"/>
-      <c r="G20" s="527"/>
-      <c r="H20" s="526"/>
-      <c r="I20" s="527"/>
-      <c r="J20" s="526"/>
-      <c r="K20" s="527" t="s">
+      <c r="E20" s="387"/>
+      <c r="F20" s="385"/>
+      <c r="G20" s="386"/>
+      <c r="H20" s="385"/>
+      <c r="I20" s="386"/>
+      <c r="J20" s="385"/>
+      <c r="K20" s="386" t="s">
         <v>1232</v>
       </c>
-      <c r="L20" s="531" t="s">
+      <c r="L20" s="388" t="s">
         <v>1232</v>
       </c>
-      <c r="M20" s="527" t="s">
+      <c r="M20" s="386" t="s">
         <v>1231</v>
       </c>
-      <c r="N20" s="531" t="s">
+      <c r="N20" s="388" t="s">
         <v>1230</v>
       </c>
-      <c r="O20" s="527"/>
-      <c r="P20" s="526"/>
-    </row>
-    <row r="21" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B21" s="525"/>
-      <c r="C21" s="530"/>
-      <c r="D21" s="523"/>
-      <c r="E21" s="522"/>
-      <c r="F21" s="520"/>
-      <c r="G21" s="521"/>
-      <c r="H21" s="520"/>
-      <c r="I21" s="521"/>
-      <c r="J21" s="520"/>
-      <c r="K21" s="521" t="s">
+      <c r="O20" s="386"/>
+      <c r="P20" s="385"/>
+    </row>
+    <row r="21" spans="2:17" ht="39" customHeight="1">
+      <c r="B21" s="393"/>
+      <c r="C21" s="399"/>
+      <c r="D21" s="395"/>
+      <c r="E21" s="384"/>
+      <c r="F21" s="382"/>
+      <c r="G21" s="383"/>
+      <c r="H21" s="382"/>
+      <c r="I21" s="383"/>
+      <c r="J21" s="382"/>
+      <c r="K21" s="383" t="s">
         <v>1229</v>
       </c>
-      <c r="L21" s="520" t="s">
+      <c r="L21" s="382" t="s">
         <v>1228</v>
       </c>
-      <c r="M21" s="521" t="s">
+      <c r="M21" s="383" t="s">
         <v>1227</v>
       </c>
-      <c r="N21" s="520" t="s">
+      <c r="N21" s="382" t="s">
         <v>1226</v>
       </c>
-      <c r="O21" s="521"/>
-      <c r="P21" s="520"/>
-    </row>
-    <row r="22" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B22" s="525"/>
-      <c r="C22" s="530"/>
-      <c r="D22" s="529" t="s">
+      <c r="O21" s="383"/>
+      <c r="P21" s="382"/>
+    </row>
+    <row r="22" spans="2:17" ht="39" customHeight="1">
+      <c r="B22" s="393"/>
+      <c r="C22" s="399"/>
+      <c r="D22" s="400" t="s">
         <v>1225</v>
       </c>
-      <c r="E22" s="528"/>
-      <c r="F22" s="526"/>
-      <c r="G22" s="527"/>
-      <c r="H22" s="526"/>
-      <c r="I22" s="527"/>
-      <c r="J22" s="526"/>
-      <c r="K22" s="527"/>
-      <c r="L22" s="526"/>
-      <c r="M22" s="527"/>
-      <c r="N22" s="526"/>
-      <c r="O22" s="527" t="s">
+      <c r="E22" s="387"/>
+      <c r="F22" s="385"/>
+      <c r="G22" s="386"/>
+      <c r="H22" s="385"/>
+      <c r="I22" s="386"/>
+      <c r="J22" s="385"/>
+      <c r="K22" s="386"/>
+      <c r="L22" s="385"/>
+      <c r="M22" s="386"/>
+      <c r="N22" s="385"/>
+      <c r="O22" s="386" t="s">
         <v>1224</v>
       </c>
-      <c r="P22" s="526" t="s">
+      <c r="P22" s="385" t="s">
         <v>1224</v>
       </c>
     </row>
-    <row r="23" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B23" s="525"/>
-      <c r="C23" s="530"/>
-      <c r="D23" s="529"/>
-      <c r="E23" s="522"/>
-      <c r="F23" s="520"/>
-      <c r="G23" s="521"/>
-      <c r="H23" s="520"/>
-      <c r="I23" s="521"/>
-      <c r="J23" s="520"/>
-      <c r="K23" s="521"/>
-      <c r="L23" s="520"/>
-      <c r="M23" s="521"/>
-      <c r="N23" s="520"/>
-      <c r="O23" s="521" t="s">
+    <row r="23" spans="2:17" ht="39" customHeight="1">
+      <c r="B23" s="393"/>
+      <c r="C23" s="399"/>
+      <c r="D23" s="400"/>
+      <c r="E23" s="384"/>
+      <c r="F23" s="382"/>
+      <c r="G23" s="383"/>
+      <c r="H23" s="382"/>
+      <c r="I23" s="383"/>
+      <c r="J23" s="382"/>
+      <c r="K23" s="383"/>
+      <c r="L23" s="382"/>
+      <c r="M23" s="383"/>
+      <c r="N23" s="382"/>
+      <c r="O23" s="383" t="s">
         <v>1223</v>
       </c>
-      <c r="P23" s="520" t="s">
+      <c r="P23" s="382" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="24" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B24" s="525" t="s">
+    <row r="24" spans="2:17" ht="39" customHeight="1">
+      <c r="B24" s="393" t="s">
         <v>1221</v>
       </c>
-      <c r="C24" s="524" t="s">
+      <c r="C24" s="394" t="s">
         <v>1210</v>
       </c>
-      <c r="D24" s="523" t="s">
+      <c r="D24" s="395" t="s">
         <v>1209</v>
       </c>
-      <c r="E24" s="528" t="s">
+      <c r="E24" s="387" t="s">
         <v>1220</v>
       </c>
-      <c r="F24" s="526" t="s">
+      <c r="F24" s="385" t="s">
         <v>1220</v>
       </c>
-      <c r="G24" s="527" t="s">
+      <c r="G24" s="386" t="s">
         <v>1219</v>
       </c>
-      <c r="H24" s="526" t="s">
+      <c r="H24" s="385" t="s">
         <v>1219</v>
       </c>
-      <c r="I24" s="527" t="s">
+      <c r="I24" s="386" t="s">
         <v>1218</v>
       </c>
-      <c r="J24" s="526" t="s">
+      <c r="J24" s="385" t="s">
         <v>1217</v>
       </c>
-      <c r="K24" s="527"/>
-      <c r="L24" s="526"/>
-      <c r="M24" s="527"/>
-      <c r="N24" s="526"/>
-      <c r="O24" s="527"/>
-      <c r="P24" s="526"/>
-    </row>
-    <row r="25" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B25" s="525"/>
-      <c r="C25" s="524"/>
-      <c r="D25" s="523"/>
-      <c r="E25" s="522" t="s">
+      <c r="K24" s="386"/>
+      <c r="L24" s="385"/>
+      <c r="M24" s="386"/>
+      <c r="N24" s="385"/>
+      <c r="O24" s="386"/>
+      <c r="P24" s="385"/>
+    </row>
+    <row r="25" spans="2:17" ht="39" customHeight="1">
+      <c r="B25" s="393"/>
+      <c r="C25" s="394"/>
+      <c r="D25" s="395"/>
+      <c r="E25" s="384" t="s">
         <v>1216</v>
       </c>
-      <c r="F25" s="520" t="s">
+      <c r="F25" s="382" t="s">
         <v>1215</v>
       </c>
-      <c r="G25" s="521" t="s">
+      <c r="G25" s="383" t="s">
         <v>1214</v>
       </c>
-      <c r="H25" s="520" t="s">
+      <c r="H25" s="382" t="s">
         <v>1213</v>
       </c>
-      <c r="I25" s="521" t="s">
+      <c r="I25" s="383" t="s">
         <v>1212</v>
       </c>
-      <c r="J25" s="520" t="s">
+      <c r="J25" s="382" t="s">
         <v>1211</v>
       </c>
-      <c r="K25" s="521"/>
-      <c r="L25" s="520"/>
-      <c r="M25" s="521"/>
-      <c r="N25" s="520"/>
-      <c r="O25" s="521"/>
-      <c r="P25" s="520"/>
-    </row>
-    <row r="26" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B26" s="525" t="s">
+      <c r="K25" s="383"/>
+      <c r="L25" s="382"/>
+      <c r="M25" s="383"/>
+      <c r="N25" s="382"/>
+      <c r="O25" s="383"/>
+      <c r="P25" s="382"/>
+    </row>
+    <row r="26" spans="2:17" ht="39" customHeight="1">
+      <c r="B26" s="393" t="s">
         <v>879</v>
       </c>
-      <c r="C26" s="524" t="s">
+      <c r="C26" s="394" t="s">
         <v>1210</v>
       </c>
-      <c r="D26" s="523" t="s">
+      <c r="D26" s="395" t="s">
         <v>1209</v>
       </c>
-      <c r="E26" s="528"/>
-      <c r="F26" s="526"/>
-      <c r="G26" s="527" t="s">
+      <c r="E26" s="387"/>
+      <c r="F26" s="385"/>
+      <c r="G26" s="386" t="s">
         <v>1208</v>
       </c>
-      <c r="H26" s="526" t="s">
+      <c r="H26" s="385" t="s">
         <v>1207</v>
       </c>
-      <c r="I26" s="527"/>
-      <c r="J26" s="526"/>
-      <c r="K26" s="527"/>
-      <c r="L26" s="526"/>
-      <c r="M26" s="527"/>
-      <c r="N26" s="526"/>
-      <c r="O26" s="527"/>
-      <c r="P26" s="526"/>
-    </row>
-    <row r="27" spans="2:17" s="51" customFormat="1" ht="39" customHeight="1">
-      <c r="B27" s="525"/>
-      <c r="C27" s="524"/>
-      <c r="D27" s="523"/>
-      <c r="E27" s="522"/>
-      <c r="F27" s="520"/>
-      <c r="G27" s="521" t="s">
+      <c r="I26" s="386"/>
+      <c r="J26" s="385"/>
+      <c r="K26" s="386"/>
+      <c r="L26" s="385"/>
+      <c r="M26" s="386"/>
+      <c r="N26" s="385"/>
+      <c r="O26" s="386"/>
+      <c r="P26" s="385"/>
+    </row>
+    <row r="27" spans="2:17" ht="39" customHeight="1">
+      <c r="B27" s="393"/>
+      <c r="C27" s="394"/>
+      <c r="D27" s="395"/>
+      <c r="E27" s="384"/>
+      <c r="F27" s="382"/>
+      <c r="G27" s="383" t="s">
         <v>1206</v>
       </c>
-      <c r="H27" s="520" t="s">
+      <c r="H27" s="382" t="s">
         <v>1205</v>
       </c>
-      <c r="I27" s="521"/>
-      <c r="J27" s="520"/>
-      <c r="K27" s="521"/>
-      <c r="L27" s="520"/>
-      <c r="M27" s="521"/>
-      <c r="N27" s="520"/>
-      <c r="O27" s="521"/>
-      <c r="P27" s="520"/>
-    </row>
-    <row r="29" spans="2:17" s="518" customFormat="1" ht="25.5">
-      <c r="B29" s="516" t="s">
+      <c r="I27" s="383"/>
+      <c r="J27" s="382"/>
+      <c r="K27" s="383"/>
+      <c r="L27" s="382"/>
+      <c r="M27" s="383"/>
+      <c r="N27" s="382"/>
+      <c r="O27" s="383"/>
+      <c r="P27" s="382"/>
+    </row>
+    <row r="29" spans="2:17" s="381" customFormat="1" ht="25.5">
+      <c r="B29" s="379" t="s">
         <v>1204</v>
       </c>
-      <c r="C29" s="519" t="s">
+      <c r="C29" s="396" t="s">
         <v>1203</v>
       </c>
-      <c r="D29" s="519"/>
-      <c r="E29" s="519"/>
-      <c r="F29" s="519"/>
-      <c r="G29" s="519"/>
-      <c r="H29" s="519"/>
-      <c r="I29" s="519"/>
-      <c r="J29" s="519"/>
-      <c r="K29" s="519"/>
-      <c r="L29" s="519"/>
-      <c r="M29" s="519"/>
-      <c r="N29" s="519"/>
-      <c r="O29" s="519"/>
-      <c r="P29" s="519"/>
-      <c r="Q29" s="519"/>
-    </row>
-    <row r="30" spans="2:17" s="515" customFormat="1" ht="25.5">
-      <c r="B30" s="516"/>
-      <c r="C30" s="516"/>
-      <c r="D30" s="516"/>
-      <c r="E30" s="516"/>
-      <c r="F30" s="516"/>
-      <c r="G30" s="516"/>
-      <c r="H30" s="516"/>
-      <c r="I30" s="516"/>
-      <c r="J30" s="516"/>
-      <c r="K30" s="516"/>
-      <c r="L30" s="516"/>
-      <c r="M30" s="516"/>
-      <c r="N30" s="516"/>
-      <c r="O30" s="516"/>
-      <c r="P30" s="516"/>
-    </row>
-    <row r="31" spans="2:17" s="515" customFormat="1" ht="30">
-      <c r="B31" s="512"/>
-      <c r="C31" s="517" t="s">
+      <c r="D29" s="396"/>
+      <c r="E29" s="396"/>
+      <c r="F29" s="396"/>
+      <c r="G29" s="396"/>
+      <c r="H29" s="396"/>
+      <c r="I29" s="396"/>
+      <c r="J29" s="396"/>
+      <c r="K29" s="396"/>
+      <c r="L29" s="396"/>
+      <c r="M29" s="396"/>
+      <c r="N29" s="396"/>
+      <c r="O29" s="396"/>
+      <c r="P29" s="396"/>
+      <c r="Q29" s="396"/>
+    </row>
+    <row r="30" spans="2:17" s="378" customFormat="1" ht="25.5">
+      <c r="B30" s="379"/>
+      <c r="C30" s="379"/>
+      <c r="D30" s="379"/>
+      <c r="E30" s="379"/>
+      <c r="F30" s="379"/>
+      <c r="G30" s="379"/>
+      <c r="H30" s="379"/>
+      <c r="I30" s="379"/>
+      <c r="J30" s="379"/>
+      <c r="K30" s="379"/>
+      <c r="L30" s="379"/>
+      <c r="M30" s="379"/>
+      <c r="N30" s="379"/>
+      <c r="O30" s="379"/>
+      <c r="P30" s="379"/>
+    </row>
+    <row r="31" spans="2:17" s="378" customFormat="1" ht="30">
+      <c r="B31" s="377"/>
+      <c r="C31" s="380" t="s">
         <v>1202</v>
       </c>
-      <c r="D31" s="517" t="s">
+      <c r="D31" s="380" t="s">
         <v>1201</v>
       </c>
-      <c r="E31" s="516"/>
-      <c r="F31" s="516"/>
-      <c r="G31" s="516"/>
-      <c r="H31" s="516"/>
-      <c r="I31" s="516"/>
-      <c r="J31" s="516"/>
-      <c r="K31" s="516"/>
-      <c r="L31" s="516"/>
-      <c r="M31" s="516"/>
-      <c r="N31" s="516"/>
-      <c r="O31" s="516"/>
-      <c r="P31" s="516"/>
-    </row>
-    <row r="32" spans="2:17" s="51" customFormat="1" ht="30">
-      <c r="B32" s="512" t="s">
+      <c r="E31" s="379"/>
+      <c r="F31" s="379"/>
+      <c r="G31" s="379"/>
+      <c r="H31" s="379"/>
+      <c r="I31" s="379"/>
+      <c r="J31" s="379"/>
+      <c r="K31" s="379"/>
+      <c r="L31" s="379"/>
+      <c r="M31" s="379"/>
+      <c r="N31" s="379"/>
+      <c r="O31" s="379"/>
+      <c r="P31" s="379"/>
+    </row>
+    <row r="32" spans="2:17" ht="30">
+      <c r="B32" s="377" t="s">
         <v>1200</v>
       </c>
-      <c r="C32" s="514" t="s">
+      <c r="C32" s="397" t="s">
         <v>1199</v>
       </c>
-      <c r="D32" s="513"/>
-      <c r="E32" s="510"/>
-      <c r="F32" s="510"/>
-      <c r="G32" s="510"/>
-      <c r="H32" s="510"/>
-      <c r="I32" s="510"/>
-      <c r="J32" s="510"/>
-      <c r="K32" s="510"/>
-      <c r="L32" s="510"/>
-      <c r="M32" s="510"/>
-      <c r="N32" s="510"/>
-      <c r="O32" s="510"/>
-      <c r="P32" s="510"/>
-    </row>
-    <row r="33" spans="2:16" s="51" customFormat="1" ht="30">
-      <c r="B33" s="512" t="s">
+      <c r="D32" s="398"/>
+    </row>
+    <row r="33" spans="2:4" ht="30">
+      <c r="B33" s="377" t="s">
         <v>1198</v>
       </c>
-      <c r="C33" s="511" t="s">
+      <c r="C33" s="376" t="s">
         <v>1197</v>
       </c>
-      <c r="D33" s="511" t="s">
+      <c r="D33" s="376" t="s">
         <v>1196</v>
       </c>
-      <c r="E33" s="510"/>
-      <c r="F33" s="510"/>
-      <c r="G33" s="510"/>
-      <c r="H33" s="510"/>
-      <c r="I33" s="510"/>
-      <c r="J33" s="510"/>
-      <c r="K33" s="510"/>
-      <c r="L33" s="510"/>
-      <c r="M33" s="510"/>
-      <c r="N33" s="510"/>
-      <c r="O33" s="510"/>
-      <c r="P33" s="510"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="C8:C11"/>
@@ -11417,34 +11316,27 @@
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>
@@ -11536,66 +11428,66 @@
     </row>
     <row r="2" spans="1:64" s="228" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A2" s="226"/>
-      <c r="B2" s="434" t="s">
+      <c r="B2" s="477" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="435"/>
-      <c r="D2" s="436"/>
-      <c r="E2" s="434" t="s">
+      <c r="C2" s="478"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="477" t="s">
         <v>443</v>
       </c>
-      <c r="F2" s="435"/>
-      <c r="G2" s="436"/>
-      <c r="H2" s="431" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="484" t="s">
         <v>444</v>
       </c>
-      <c r="I2" s="432"/>
-      <c r="J2" s="433"/>
-      <c r="K2" s="431" t="s">
+      <c r="I2" s="485"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="484" t="s">
         <v>445</v>
       </c>
-      <c r="L2" s="432"/>
-      <c r="M2" s="433"/>
-      <c r="N2" s="437">
+      <c r="L2" s="485"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487">
         <v>0.05</v>
       </c>
-      <c r="O2" s="438"/>
-      <c r="P2" s="439"/>
-      <c r="Q2" s="431" t="s">
+      <c r="O2" s="488"/>
+      <c r="P2" s="489"/>
+      <c r="Q2" s="484" t="s">
         <v>447</v>
       </c>
-      <c r="R2" s="432"/>
-      <c r="S2" s="433"/>
-      <c r="T2" s="431" t="s">
+      <c r="R2" s="485"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="484" t="s">
         <v>448</v>
       </c>
-      <c r="U2" s="432"/>
-      <c r="V2" s="433"/>
-      <c r="W2" s="442" t="s">
+      <c r="U2" s="485"/>
+      <c r="V2" s="486"/>
+      <c r="W2" s="471" t="s">
         <v>760</v>
       </c>
-      <c r="X2" s="443"/>
-      <c r="Y2" s="444"/>
-      <c r="Z2" s="442" t="s">
+      <c r="X2" s="472"/>
+      <c r="Y2" s="473"/>
+      <c r="Z2" s="471" t="s">
         <v>761</v>
       </c>
-      <c r="AA2" s="443"/>
-      <c r="AB2" s="444"/>
-      <c r="AC2" s="442" t="s">
+      <c r="AA2" s="472"/>
+      <c r="AB2" s="473"/>
+      <c r="AC2" s="471" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" s="443"/>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="445" t="s">
+      <c r="AD2" s="472"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474" t="s">
         <v>452</v>
       </c>
-      <c r="AG2" s="446"/>
-      <c r="AH2" s="447"/>
-      <c r="AI2" s="445" t="s">
+      <c r="AG2" s="475"/>
+      <c r="AH2" s="476"/>
+      <c r="AI2" s="474" t="s">
         <v>453</v>
       </c>
-      <c r="AJ2" s="446"/>
-      <c r="AK2" s="447"/>
+      <c r="AJ2" s="475"/>
+      <c r="AK2" s="476"/>
       <c r="AL2" s="226"/>
       <c r="AM2" s="226"/>
       <c r="AN2" s="226"/>
@@ -11706,38 +11598,38 @@
       <c r="G4" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="448" t="s">
+      <c r="H4" s="482" t="s">
         <v>755</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="483"/>
       <c r="J4" s="239" t="s">
         <v>765</v>
       </c>
-      <c r="K4" s="448" t="s">
+      <c r="K4" s="482" t="s">
         <v>569</v>
       </c>
-      <c r="L4" s="449"/>
+      <c r="L4" s="483"/>
       <c r="M4" s="239" t="s">
         <v>459</v>
       </c>
-      <c r="N4" s="448" t="s">
+      <c r="N4" s="482" t="s">
         <v>756</v>
       </c>
-      <c r="O4" s="449"/>
+      <c r="O4" s="483"/>
       <c r="P4" s="239" t="s">
         <v>766</v>
       </c>
-      <c r="Q4" s="448" t="s">
+      <c r="Q4" s="482" t="s">
         <v>571</v>
       </c>
-      <c r="R4" s="449"/>
+      <c r="R4" s="483"/>
       <c r="S4" s="239" t="s">
         <v>461</v>
       </c>
-      <c r="T4" s="448" t="s">
+      <c r="T4" s="482" t="s">
         <v>767</v>
       </c>
-      <c r="U4" s="449"/>
+      <c r="U4" s="483"/>
       <c r="V4" s="239" t="s">
         <v>768</v>
       </c>
@@ -11772,8 +11664,8 @@
       <c r="AH4" s="244" t="s">
         <v>770</v>
       </c>
-      <c r="AI4" s="440"/>
-      <c r="AJ4" s="441"/>
+      <c r="AI4" s="480"/>
+      <c r="AJ4" s="481"/>
       <c r="AK4" s="246"/>
       <c r="AL4" s="234"/>
       <c r="AM4" s="234"/>
@@ -11809,71 +11701,71 @@
     <row r="5" spans="1:64" s="228" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="226"/>
       <c r="B5" s="226"/>
-      <c r="C5" s="434" t="s">
+      <c r="C5" s="477" t="s">
         <v>465</v>
       </c>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="434" t="s">
+      <c r="D5" s="478"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="477" t="s">
         <v>466</v>
       </c>
-      <c r="G5" s="435"/>
-      <c r="H5" s="436"/>
-      <c r="I5" s="434" t="s">
+      <c r="G5" s="478"/>
+      <c r="H5" s="479"/>
+      <c r="I5" s="477" t="s">
         <v>546</v>
       </c>
-      <c r="J5" s="435"/>
-      <c r="K5" s="436"/>
-      <c r="L5" s="434" t="s">
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="477" t="s">
         <v>468</v>
       </c>
-      <c r="M5" s="435"/>
-      <c r="N5" s="436"/>
-      <c r="O5" s="434" t="s">
+      <c r="M5" s="478"/>
+      <c r="N5" s="479"/>
+      <c r="O5" s="477" t="s">
         <v>299</v>
       </c>
-      <c r="P5" s="435"/>
-      <c r="Q5" s="436"/>
-      <c r="R5" s="434" t="s">
+      <c r="P5" s="478"/>
+      <c r="Q5" s="479"/>
+      <c r="R5" s="477" t="s">
         <v>771</v>
       </c>
-      <c r="S5" s="435"/>
-      <c r="T5" s="436"/>
-      <c r="U5" s="442" t="s">
+      <c r="S5" s="478"/>
+      <c r="T5" s="479"/>
+      <c r="U5" s="471" t="s">
         <v>315</v>
       </c>
-      <c r="V5" s="443"/>
-      <c r="W5" s="444"/>
-      <c r="X5" s="442" t="s">
+      <c r="V5" s="472"/>
+      <c r="W5" s="473"/>
+      <c r="X5" s="471" t="s">
         <v>313</v>
       </c>
-      <c r="Y5" s="443"/>
-      <c r="Z5" s="444"/>
-      <c r="AA5" s="442" t="s">
+      <c r="Y5" s="472"/>
+      <c r="Z5" s="473"/>
+      <c r="AA5" s="471" t="s">
         <v>472</v>
       </c>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="444"/>
-      <c r="AD5" s="442" t="s">
+      <c r="AB5" s="472"/>
+      <c r="AC5" s="473"/>
+      <c r="AD5" s="471" t="s">
         <v>297</v>
       </c>
-      <c r="AE5" s="443"/>
-      <c r="AF5" s="444"/>
-      <c r="AG5" s="442" t="s">
+      <c r="AE5" s="472"/>
+      <c r="AF5" s="473"/>
+      <c r="AG5" s="471" t="s">
         <v>473</v>
       </c>
-      <c r="AH5" s="443"/>
-      <c r="AI5" s="444"/>
-      <c r="AJ5" s="442" t="s">
+      <c r="AH5" s="472"/>
+      <c r="AI5" s="473"/>
+      <c r="AJ5" s="471" t="s">
         <v>474</v>
       </c>
-      <c r="AK5" s="443"/>
-      <c r="AL5" s="444"/>
-      <c r="AM5" s="445" t="s">
+      <c r="AK5" s="472"/>
+      <c r="AL5" s="473"/>
+      <c r="AM5" s="474" t="s">
         <v>475</v>
       </c>
-      <c r="AN5" s="446"/>
-      <c r="AO5" s="447"/>
+      <c r="AN5" s="475"/>
+      <c r="AO5" s="476"/>
       <c r="AP5" s="226"/>
       <c r="AQ5" s="226"/>
       <c r="AR5" s="227"/>
@@ -12069,14 +11961,14 @@
       <c r="AF7" s="244" t="s">
         <v>772</v>
       </c>
-      <c r="AG7" s="440"/>
-      <c r="AH7" s="441"/>
+      <c r="AG7" s="480"/>
+      <c r="AH7" s="481"/>
       <c r="AI7" s="246"/>
-      <c r="AJ7" s="440"/>
-      <c r="AK7" s="441"/>
+      <c r="AJ7" s="480"/>
+      <c r="AK7" s="481"/>
       <c r="AL7" s="246"/>
-      <c r="AM7" s="440"/>
-      <c r="AN7" s="441"/>
+      <c r="AM7" s="480"/>
+      <c r="AN7" s="481"/>
       <c r="AO7" s="246"/>
       <c r="AP7" s="234"/>
       <c r="AQ7" s="234"/>
@@ -12110,61 +12002,61 @@
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="253"/>
-      <c r="D8" s="434" t="s">
+      <c r="D8" s="477" t="s">
         <v>480</v>
       </c>
-      <c r="E8" s="435"/>
-      <c r="F8" s="436"/>
-      <c r="G8" s="434" t="s">
+      <c r="E8" s="478"/>
+      <c r="F8" s="479"/>
+      <c r="G8" s="477" t="s">
         <v>481</v>
       </c>
-      <c r="H8" s="435"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="434" t="s">
+      <c r="H8" s="478"/>
+      <c r="I8" s="479"/>
+      <c r="J8" s="477" t="s">
         <v>321</v>
       </c>
-      <c r="K8" s="435"/>
-      <c r="L8" s="436"/>
-      <c r="M8" s="434" t="s">
+      <c r="K8" s="478"/>
+      <c r="L8" s="479"/>
+      <c r="M8" s="477" t="s">
         <v>482</v>
       </c>
-      <c r="N8" s="435"/>
-      <c r="O8" s="436"/>
-      <c r="P8" s="434" t="s">
+      <c r="N8" s="478"/>
+      <c r="O8" s="479"/>
+      <c r="P8" s="477" t="s">
         <v>325</v>
       </c>
-      <c r="Q8" s="435"/>
-      <c r="R8" s="436"/>
-      <c r="S8" s="434" t="s">
+      <c r="Q8" s="478"/>
+      <c r="R8" s="479"/>
+      <c r="S8" s="477" t="s">
         <v>483</v>
       </c>
-      <c r="T8" s="435"/>
-      <c r="U8" s="436"/>
-      <c r="V8" s="442" t="s">
+      <c r="T8" s="478"/>
+      <c r="U8" s="479"/>
+      <c r="V8" s="471" t="s">
         <v>773</v>
       </c>
-      <c r="W8" s="443"/>
-      <c r="X8" s="444"/>
-      <c r="Y8" s="442" t="s">
+      <c r="W8" s="472"/>
+      <c r="X8" s="473"/>
+      <c r="Y8" s="471" t="s">
         <v>302</v>
       </c>
-      <c r="Z8" s="443"/>
-      <c r="AA8" s="444"/>
-      <c r="AB8" s="442" t="s">
+      <c r="Z8" s="472"/>
+      <c r="AA8" s="473"/>
+      <c r="AB8" s="471" t="s">
         <v>774</v>
       </c>
-      <c r="AC8" s="443"/>
-      <c r="AD8" s="444"/>
-      <c r="AE8" s="442" t="s">
+      <c r="AC8" s="472"/>
+      <c r="AD8" s="473"/>
+      <c r="AE8" s="471" t="s">
         <v>486</v>
       </c>
-      <c r="AF8" s="443"/>
-      <c r="AG8" s="444"/>
-      <c r="AH8" s="445" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="474" t="s">
         <v>487</v>
       </c>
-      <c r="AI8" s="446"/>
-      <c r="AJ8" s="447"/>
+      <c r="AI8" s="475"/>
+      <c r="AJ8" s="476"/>
       <c r="AK8" s="226"/>
       <c r="AL8" s="226"/>
       <c r="AM8" s="226"/>
@@ -12347,8 +12239,8 @@
       <c r="AG10" s="244" t="s">
         <v>341</v>
       </c>
-      <c r="AH10" s="440"/>
-      <c r="AI10" s="441"/>
+      <c r="AH10" s="480"/>
+      <c r="AI10" s="481"/>
       <c r="AJ10" s="246"/>
       <c r="AK10" s="234"/>
       <c r="AL10" s="234"/>
@@ -12388,56 +12280,56 @@
       <c r="B11" s="226"/>
       <c r="C11" s="226"/>
       <c r="D11" s="226"/>
-      <c r="E11" s="434" t="s">
+      <c r="E11" s="477" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="435"/>
-      <c r="G11" s="436"/>
-      <c r="H11" s="434" t="s">
+      <c r="F11" s="478"/>
+      <c r="G11" s="479"/>
+      <c r="H11" s="477" t="s">
         <v>493</v>
       </c>
-      <c r="I11" s="435"/>
-      <c r="J11" s="436"/>
-      <c r="K11" s="434" t="s">
+      <c r="I11" s="478"/>
+      <c r="J11" s="479"/>
+      <c r="K11" s="477" t="s">
         <v>306</v>
       </c>
-      <c r="L11" s="435"/>
-      <c r="M11" s="436"/>
-      <c r="N11" s="434" t="s">
+      <c r="L11" s="478"/>
+      <c r="M11" s="479"/>
+      <c r="N11" s="477" t="s">
         <v>494</v>
       </c>
-      <c r="O11" s="435"/>
-      <c r="P11" s="436"/>
-      <c r="Q11" s="434" t="s">
+      <c r="O11" s="478"/>
+      <c r="P11" s="479"/>
+      <c r="Q11" s="477" t="s">
         <v>319</v>
       </c>
-      <c r="R11" s="435"/>
-      <c r="S11" s="436"/>
-      <c r="T11" s="434" t="s">
+      <c r="R11" s="478"/>
+      <c r="S11" s="479"/>
+      <c r="T11" s="477" t="s">
         <v>495</v>
       </c>
-      <c r="U11" s="435"/>
-      <c r="V11" s="436"/>
-      <c r="W11" s="442" t="s">
+      <c r="U11" s="478"/>
+      <c r="V11" s="479"/>
+      <c r="W11" s="471" t="s">
         <v>496</v>
       </c>
-      <c r="X11" s="443"/>
-      <c r="Y11" s="444"/>
-      <c r="Z11" s="442" t="s">
+      <c r="X11" s="472"/>
+      <c r="Y11" s="473"/>
+      <c r="Z11" s="471" t="s">
         <v>775</v>
       </c>
-      <c r="AA11" s="443"/>
-      <c r="AB11" s="444"/>
-      <c r="AC11" s="442" t="s">
+      <c r="AA11" s="472"/>
+      <c r="AB11" s="473"/>
+      <c r="AC11" s="471" t="s">
         <v>498</v>
       </c>
-      <c r="AD11" s="443"/>
-      <c r="AE11" s="444"/>
-      <c r="AF11" s="445" t="s">
+      <c r="AD11" s="472"/>
+      <c r="AE11" s="473"/>
+      <c r="AF11" s="474" t="s">
         <v>499</v>
       </c>
-      <c r="AG11" s="446"/>
-      <c r="AH11" s="447"/>
+      <c r="AG11" s="475"/>
+      <c r="AH11" s="476"/>
       <c r="AI11" s="226"/>
       <c r="AJ11" s="226"/>
       <c r="AK11" s="226"/>
@@ -17111,52 +17003,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -17167,6 +17013,52 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17190,401 +17082,401 @@
   <sheetData>
     <row r="1" spans="3:48" ht="15" thickBot="1"/>
     <row r="2" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="386" t="s">
+      <c r="C2" s="463" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="386" t="s">
+      <c r="D2" s="464"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="463" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="387"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="383" t="s">
+      <c r="G2" s="464"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="460" t="s">
         <v>388</v>
       </c>
-      <c r="J2" s="384"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="383" t="s">
+      <c r="J2" s="461"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="460" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="384"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="389" t="s">
+      <c r="M2" s="461"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="466" t="s">
         <v>390</v>
       </c>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="383" t="s">
+      <c r="P2" s="461"/>
+      <c r="Q2" s="462"/>
+      <c r="R2" s="460" t="s">
         <v>391</v>
       </c>
-      <c r="S2" s="384"/>
-      <c r="T2" s="385"/>
-      <c r="U2" s="383" t="s">
+      <c r="S2" s="461"/>
+      <c r="T2" s="462"/>
+      <c r="U2" s="460" t="s">
         <v>392</v>
       </c>
-      <c r="V2" s="384"/>
-      <c r="W2" s="385"/>
-      <c r="X2" s="400" t="s">
+      <c r="V2" s="461"/>
+      <c r="W2" s="462"/>
+      <c r="X2" s="439" t="s">
         <v>393</v>
       </c>
-      <c r="Y2" s="401"/>
-      <c r="Z2" s="402"/>
-      <c r="AA2" s="400" t="s">
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="439" t="s">
         <v>394</v>
       </c>
-      <c r="AB2" s="401"/>
-      <c r="AC2" s="402"/>
-      <c r="AD2" s="400" t="s">
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
+      <c r="AD2" s="439" t="s">
         <v>395</v>
       </c>
-      <c r="AE2" s="401"/>
-      <c r="AF2" s="402"/>
-      <c r="AG2" s="400" t="s">
+      <c r="AE2" s="433"/>
+      <c r="AF2" s="434"/>
+      <c r="AG2" s="439" t="s">
         <v>384</v>
       </c>
-      <c r="AH2" s="401"/>
-      <c r="AI2" s="402"/>
-      <c r="AJ2" s="426" t="s">
+      <c r="AH2" s="433"/>
+      <c r="AI2" s="434"/>
+      <c r="AJ2" s="432" t="s">
         <v>385</v>
       </c>
-      <c r="AK2" s="401"/>
-      <c r="AL2" s="402"/>
+      <c r="AK2" s="433"/>
+      <c r="AL2" s="434"/>
     </row>
     <row r="3" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="390"/>
-      <c r="D3" s="391"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="390"/>
-      <c r="G3" s="391"/>
-      <c r="H3" s="392"/>
-      <c r="I3" s="393"/>
-      <c r="J3" s="394"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="393"/>
-      <c r="M3" s="394"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="393"/>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="395"/>
-      <c r="R3" s="393"/>
-      <c r="S3" s="394"/>
-      <c r="T3" s="395"/>
-      <c r="U3" s="406"/>
-      <c r="V3" s="407"/>
-      <c r="W3" s="408"/>
-      <c r="X3" s="409"/>
-      <c r="Y3" s="410"/>
-      <c r="Z3" s="411"/>
-      <c r="AA3" s="396"/>
-      <c r="AB3" s="397"/>
-      <c r="AC3" s="398"/>
-      <c r="AD3" s="396"/>
-      <c r="AE3" s="397"/>
-      <c r="AF3" s="398"/>
-      <c r="AG3" s="451" t="s">
+      <c r="C3" s="440"/>
+      <c r="D3" s="441"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="440"/>
+      <c r="G3" s="441"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="454"/>
+      <c r="J3" s="455"/>
+      <c r="K3" s="456"/>
+      <c r="L3" s="454"/>
+      <c r="M3" s="455"/>
+      <c r="N3" s="456"/>
+      <c r="O3" s="454"/>
+      <c r="P3" s="455"/>
+      <c r="Q3" s="456"/>
+      <c r="R3" s="454"/>
+      <c r="S3" s="455"/>
+      <c r="T3" s="456"/>
+      <c r="U3" s="457"/>
+      <c r="V3" s="458"/>
+      <c r="W3" s="459"/>
+      <c r="X3" s="423"/>
+      <c r="Y3" s="424"/>
+      <c r="Z3" s="425"/>
+      <c r="AA3" s="429"/>
+      <c r="AB3" s="430"/>
+      <c r="AC3" s="431"/>
+      <c r="AD3" s="429"/>
+      <c r="AE3" s="430"/>
+      <c r="AF3" s="431"/>
+      <c r="AG3" s="491" t="s">
         <v>400</v>
       </c>
-      <c r="AH3" s="452"/>
-      <c r="AI3" s="453"/>
-      <c r="AJ3" s="399"/>
-      <c r="AK3" s="397"/>
-      <c r="AL3" s="398"/>
+      <c r="AH3" s="492"/>
+      <c r="AI3" s="493"/>
+      <c r="AJ3" s="435"/>
+      <c r="AK3" s="430"/>
+      <c r="AL3" s="431"/>
     </row>
     <row r="4" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="403" t="s">
+      <c r="D4" s="443" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="404"/>
-      <c r="F4" s="405"/>
-      <c r="G4" s="403" t="s">
+      <c r="E4" s="444"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="404"/>
-      <c r="I4" s="405"/>
-      <c r="J4" s="403" t="s">
+      <c r="H4" s="444"/>
+      <c r="I4" s="445"/>
+      <c r="J4" s="443" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="404"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="403" t="s">
+      <c r="K4" s="444"/>
+      <c r="L4" s="445"/>
+      <c r="M4" s="443" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="404"/>
-      <c r="O4" s="405"/>
-      <c r="P4" s="403" t="s">
+      <c r="N4" s="444"/>
+      <c r="O4" s="445"/>
+      <c r="P4" s="443" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="405"/>
-      <c r="S4" s="403" t="s">
+      <c r="Q4" s="444"/>
+      <c r="R4" s="445"/>
+      <c r="S4" s="443" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="404"/>
-      <c r="U4" s="405"/>
-      <c r="V4" s="415" t="s">
+      <c r="T4" s="444"/>
+      <c r="U4" s="445"/>
+      <c r="V4" s="436" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="416"/>
-      <c r="X4" s="417"/>
-      <c r="Y4" s="415" t="s">
+      <c r="W4" s="437"/>
+      <c r="X4" s="438"/>
+      <c r="Y4" s="436" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="416"/>
-      <c r="AA4" s="417"/>
-      <c r="AB4" s="415" t="s">
+      <c r="Z4" s="437"/>
+      <c r="AA4" s="438"/>
+      <c r="AB4" s="436" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="416"/>
-      <c r="AD4" s="417"/>
-      <c r="AE4" s="415" t="s">
+      <c r="AC4" s="437"/>
+      <c r="AD4" s="438"/>
+      <c r="AE4" s="436" t="s">
         <v>48</v>
       </c>
-      <c r="AF4" s="416"/>
-      <c r="AG4" s="417"/>
-      <c r="AH4" s="400" t="s">
+      <c r="AF4" s="437"/>
+      <c r="AG4" s="438"/>
+      <c r="AH4" s="439" t="s">
         <v>382</v>
       </c>
-      <c r="AI4" s="401"/>
-      <c r="AJ4" s="402"/>
-      <c r="AK4" s="400" t="s">
+      <c r="AI4" s="433"/>
+      <c r="AJ4" s="434"/>
+      <c r="AK4" s="439" t="s">
         <v>383</v>
       </c>
-      <c r="AL4" s="401"/>
-      <c r="AM4" s="402"/>
-      <c r="AN4" s="400" t="s">
+      <c r="AL4" s="433"/>
+      <c r="AM4" s="434"/>
+      <c r="AN4" s="439" t="s">
         <v>381</v>
       </c>
-      <c r="AO4" s="401"/>
-      <c r="AP4" s="402"/>
+      <c r="AO4" s="433"/>
+      <c r="AP4" s="434"/>
     </row>
     <row r="5" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="390"/>
-      <c r="E5" s="391"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="390"/>
-      <c r="H5" s="391"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="390"/>
-      <c r="K5" s="391"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="390"/>
-      <c r="N5" s="391"/>
-      <c r="O5" s="392"/>
-      <c r="P5" s="412"/>
-      <c r="Q5" s="413"/>
-      <c r="R5" s="414"/>
-      <c r="S5" s="390"/>
-      <c r="T5" s="391"/>
-      <c r="U5" s="392"/>
-      <c r="V5" s="409"/>
-      <c r="W5" s="410"/>
-      <c r="X5" s="411"/>
-      <c r="Y5" s="409"/>
-      <c r="Z5" s="410"/>
-      <c r="AA5" s="411"/>
-      <c r="AB5" s="409"/>
-      <c r="AC5" s="410"/>
-      <c r="AD5" s="411"/>
-      <c r="AE5" s="409"/>
-      <c r="AF5" s="410"/>
-      <c r="AG5" s="411"/>
-      <c r="AH5" s="418"/>
-      <c r="AI5" s="419"/>
-      <c r="AJ5" s="420"/>
-      <c r="AK5" s="451" t="s">
+      <c r="D5" s="440"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="440"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="442"/>
+      <c r="J5" s="440"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="442"/>
+      <c r="M5" s="440"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="442"/>
+      <c r="P5" s="446"/>
+      <c r="Q5" s="447"/>
+      <c r="R5" s="448"/>
+      <c r="S5" s="440"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="442"/>
+      <c r="V5" s="423"/>
+      <c r="W5" s="424"/>
+      <c r="X5" s="425"/>
+      <c r="Y5" s="423"/>
+      <c r="Z5" s="424"/>
+      <c r="AA5" s="425"/>
+      <c r="AB5" s="423"/>
+      <c r="AC5" s="424"/>
+      <c r="AD5" s="425"/>
+      <c r="AE5" s="423"/>
+      <c r="AF5" s="424"/>
+      <c r="AG5" s="425"/>
+      <c r="AH5" s="451"/>
+      <c r="AI5" s="452"/>
+      <c r="AJ5" s="453"/>
+      <c r="AK5" s="491" t="s">
         <v>401</v>
       </c>
-      <c r="AL5" s="452"/>
-      <c r="AM5" s="453"/>
-      <c r="AN5" s="451" t="s">
+      <c r="AL5" s="492"/>
+      <c r="AM5" s="493"/>
+      <c r="AN5" s="491" t="s">
         <v>399</v>
       </c>
-      <c r="AO5" s="452"/>
-      <c r="AP5" s="453"/>
+      <c r="AO5" s="492"/>
+      <c r="AP5" s="493"/>
     </row>
     <row r="6" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="403" t="s">
+      <c r="E6" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="404"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="403" t="s">
+      <c r="F6" s="444"/>
+      <c r="G6" s="445"/>
+      <c r="H6" s="443" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="404"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="403" t="s">
+      <c r="I6" s="444"/>
+      <c r="J6" s="445"/>
+      <c r="K6" s="443" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="404"/>
-      <c r="M6" s="405"/>
-      <c r="N6" s="403" t="s">
+      <c r="L6" s="444"/>
+      <c r="M6" s="445"/>
+      <c r="N6" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="404"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="403" t="s">
+      <c r="O6" s="444"/>
+      <c r="P6" s="445"/>
+      <c r="Q6" s="443" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="404"/>
-      <c r="S6" s="405"/>
-      <c r="T6" s="403" t="s">
+      <c r="R6" s="444"/>
+      <c r="S6" s="445"/>
+      <c r="T6" s="443" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="404"/>
-      <c r="V6" s="405"/>
-      <c r="W6" s="415" t="s">
+      <c r="U6" s="444"/>
+      <c r="V6" s="445"/>
+      <c r="W6" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="416"/>
-      <c r="Y6" s="417"/>
-      <c r="Z6" s="415" t="s">
+      <c r="X6" s="437"/>
+      <c r="Y6" s="438"/>
+      <c r="Z6" s="436" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="416"/>
-      <c r="AB6" s="417"/>
-      <c r="AC6" s="415" t="s">
+      <c r="AA6" s="437"/>
+      <c r="AB6" s="438"/>
+      <c r="AC6" s="436" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="417"/>
-      <c r="AF6" s="400" t="s">
+      <c r="AD6" s="437"/>
+      <c r="AE6" s="438"/>
+      <c r="AF6" s="439" t="s">
         <v>373</v>
       </c>
-      <c r="AG6" s="401"/>
-      <c r="AH6" s="402"/>
-      <c r="AI6" s="400" t="s">
+      <c r="AG6" s="433"/>
+      <c r="AH6" s="434"/>
+      <c r="AI6" s="439" t="s">
         <v>375</v>
       </c>
-      <c r="AJ6" s="401"/>
-      <c r="AK6" s="402"/>
+      <c r="AJ6" s="433"/>
+      <c r="AK6" s="434"/>
     </row>
     <row r="7" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="390"/>
-      <c r="F7" s="391"/>
-      <c r="G7" s="392"/>
-      <c r="H7" s="390"/>
-      <c r="I7" s="391"/>
-      <c r="J7" s="392"/>
-      <c r="K7" s="390"/>
-      <c r="L7" s="391"/>
-      <c r="M7" s="392"/>
-      <c r="N7" s="390"/>
-      <c r="O7" s="391"/>
-      <c r="P7" s="392"/>
-      <c r="Q7" s="421"/>
-      <c r="R7" s="413"/>
-      <c r="S7" s="414"/>
-      <c r="T7" s="390"/>
-      <c r="U7" s="391"/>
-      <c r="V7" s="392"/>
-      <c r="W7" s="409"/>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="411"/>
-      <c r="Z7" s="409"/>
-      <c r="AA7" s="410"/>
-      <c r="AB7" s="411"/>
-      <c r="AC7" s="422"/>
-      <c r="AD7" s="410"/>
-      <c r="AE7" s="411"/>
-      <c r="AF7" s="451" t="s">
+      <c r="E7" s="440"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="440"/>
+      <c r="I7" s="441"/>
+      <c r="J7" s="442"/>
+      <c r="K7" s="440"/>
+      <c r="L7" s="441"/>
+      <c r="M7" s="442"/>
+      <c r="N7" s="440"/>
+      <c r="O7" s="441"/>
+      <c r="P7" s="442"/>
+      <c r="Q7" s="450"/>
+      <c r="R7" s="447"/>
+      <c r="S7" s="448"/>
+      <c r="T7" s="440"/>
+      <c r="U7" s="441"/>
+      <c r="V7" s="442"/>
+      <c r="W7" s="423"/>
+      <c r="X7" s="424"/>
+      <c r="Y7" s="425"/>
+      <c r="Z7" s="423"/>
+      <c r="AA7" s="424"/>
+      <c r="AB7" s="425"/>
+      <c r="AC7" s="449"/>
+      <c r="AD7" s="424"/>
+      <c r="AE7" s="425"/>
+      <c r="AF7" s="491" t="s">
         <v>398</v>
       </c>
-      <c r="AG7" s="452"/>
-      <c r="AH7" s="453"/>
-      <c r="AI7" s="396"/>
-      <c r="AJ7" s="397"/>
-      <c r="AK7" s="398"/>
+      <c r="AG7" s="492"/>
+      <c r="AH7" s="493"/>
+      <c r="AI7" s="429"/>
+      <c r="AJ7" s="430"/>
+      <c r="AK7" s="431"/>
     </row>
     <row r="8" spans="3:48" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="403" t="s">
+      <c r="F8" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="404"/>
-      <c r="H8" s="405"/>
-      <c r="I8" s="403" t="s">
+      <c r="G8" s="444"/>
+      <c r="H8" s="445"/>
+      <c r="I8" s="443" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="404"/>
-      <c r="K8" s="405"/>
-      <c r="L8" s="403" t="s">
+      <c r="J8" s="444"/>
+      <c r="K8" s="445"/>
+      <c r="L8" s="443" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="404"/>
-      <c r="N8" s="405"/>
-      <c r="O8" s="403" t="s">
+      <c r="M8" s="444"/>
+      <c r="N8" s="445"/>
+      <c r="O8" s="443" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="404"/>
-      <c r="Q8" s="405"/>
-      <c r="R8" s="403" t="s">
+      <c r="P8" s="444"/>
+      <c r="Q8" s="445"/>
+      <c r="R8" s="443" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="404"/>
-      <c r="T8" s="405"/>
-      <c r="U8" s="403" t="s">
+      <c r="S8" s="444"/>
+      <c r="T8" s="445"/>
+      <c r="U8" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="404"/>
-      <c r="W8" s="405"/>
-      <c r="X8" s="415" t="s">
+      <c r="V8" s="444"/>
+      <c r="W8" s="445"/>
+      <c r="X8" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="416"/>
-      <c r="Z8" s="417"/>
-      <c r="AA8" s="400" t="s">
+      <c r="Y8" s="437"/>
+      <c r="Z8" s="438"/>
+      <c r="AA8" s="439" t="s">
         <v>371</v>
       </c>
-      <c r="AB8" s="401"/>
-      <c r="AC8" s="402"/>
-      <c r="AD8" s="400" t="s">
+      <c r="AB8" s="433"/>
+      <c r="AC8" s="434"/>
+      <c r="AD8" s="439" t="s">
         <v>370</v>
       </c>
-      <c r="AE8" s="401"/>
-      <c r="AF8" s="402"/>
-      <c r="AG8" s="400" t="s">
+      <c r="AE8" s="433"/>
+      <c r="AF8" s="434"/>
+      <c r="AG8" s="439" t="s">
         <v>369</v>
       </c>
-      <c r="AH8" s="401"/>
-      <c r="AI8" s="402"/>
+      <c r="AH8" s="433"/>
+      <c r="AI8" s="434"/>
     </row>
     <row r="9" spans="3:48" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="412"/>
-      <c r="G9" s="413"/>
-      <c r="H9" s="414"/>
-      <c r="I9" s="390"/>
-      <c r="J9" s="391"/>
-      <c r="K9" s="392"/>
-      <c r="L9" s="390"/>
-      <c r="M9" s="391"/>
-      <c r="N9" s="392"/>
-      <c r="O9" s="390"/>
-      <c r="P9" s="391"/>
-      <c r="Q9" s="392"/>
-      <c r="R9" s="412"/>
-      <c r="S9" s="413"/>
-      <c r="T9" s="414"/>
-      <c r="U9" s="390"/>
-      <c r="V9" s="391"/>
-      <c r="W9" s="392"/>
-      <c r="X9" s="409"/>
-      <c r="Y9" s="410"/>
-      <c r="Z9" s="411"/>
-      <c r="AA9" s="451" t="s">
+      <c r="F9" s="446"/>
+      <c r="G9" s="447"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="440"/>
+      <c r="J9" s="441"/>
+      <c r="K9" s="442"/>
+      <c r="L9" s="440"/>
+      <c r="M9" s="441"/>
+      <c r="N9" s="442"/>
+      <c r="O9" s="440"/>
+      <c r="P9" s="441"/>
+      <c r="Q9" s="442"/>
+      <c r="R9" s="446"/>
+      <c r="S9" s="447"/>
+      <c r="T9" s="448"/>
+      <c r="U9" s="440"/>
+      <c r="V9" s="441"/>
+      <c r="W9" s="442"/>
+      <c r="X9" s="423"/>
+      <c r="Y9" s="424"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="491" t="s">
         <v>396</v>
       </c>
-      <c r="AB9" s="452"/>
-      <c r="AC9" s="453"/>
-      <c r="AD9" s="409"/>
-      <c r="AE9" s="410"/>
-      <c r="AF9" s="411"/>
-      <c r="AG9" s="451" t="s">
+      <c r="AB9" s="492"/>
+      <c r="AC9" s="493"/>
+      <c r="AD9" s="423"/>
+      <c r="AE9" s="424"/>
+      <c r="AF9" s="425"/>
+      <c r="AG9" s="491" t="s">
         <v>397</v>
       </c>
-      <c r="AH9" s="452"/>
-      <c r="AI9" s="453"/>
+      <c r="AH9" s="492"/>
+      <c r="AI9" s="493"/>
       <c r="AL9" s="24" t="s">
         <v>372</v>
       </c>
@@ -18208,36 +18100,52 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
     <mergeCell ref="AN4:AP4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -18254,52 +18162,36 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -18326,400 +18218,400 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="466">
+      <c r="C2" s="497">
         <v>1</v>
       </c>
-      <c r="D2" s="467"/>
-      <c r="E2" s="468"/>
-      <c r="F2" s="466">
+      <c r="D2" s="498"/>
+      <c r="E2" s="499"/>
+      <c r="F2" s="497">
         <v>2</v>
       </c>
-      <c r="G2" s="467"/>
-      <c r="H2" s="468"/>
-      <c r="I2" s="484">
+      <c r="G2" s="498"/>
+      <c r="H2" s="499"/>
+      <c r="I2" s="494">
         <v>3</v>
       </c>
-      <c r="J2" s="485"/>
-      <c r="K2" s="486"/>
-      <c r="L2" s="484">
+      <c r="J2" s="495"/>
+      <c r="K2" s="496"/>
+      <c r="L2" s="494">
         <v>4</v>
       </c>
-      <c r="M2" s="485"/>
-      <c r="N2" s="486"/>
-      <c r="O2" s="484">
+      <c r="M2" s="495"/>
+      <c r="N2" s="496"/>
+      <c r="O2" s="494">
         <v>5</v>
       </c>
-      <c r="P2" s="485"/>
-      <c r="Q2" s="486"/>
-      <c r="R2" s="484">
+      <c r="P2" s="495"/>
+      <c r="Q2" s="496"/>
+      <c r="R2" s="494">
         <v>6</v>
       </c>
-      <c r="S2" s="485"/>
-      <c r="T2" s="486"/>
-      <c r="U2" s="484">
+      <c r="S2" s="495"/>
+      <c r="T2" s="496"/>
+      <c r="U2" s="494">
         <v>7</v>
       </c>
-      <c r="V2" s="485"/>
-      <c r="W2" s="486"/>
-      <c r="X2" s="457">
+      <c r="V2" s="495"/>
+      <c r="W2" s="496"/>
+      <c r="X2" s="510">
         <v>8</v>
       </c>
-      <c r="Y2" s="458"/>
-      <c r="Z2" s="459"/>
-      <c r="AA2" s="460">
+      <c r="Y2" s="511"/>
+      <c r="Z2" s="512"/>
+      <c r="AA2" s="513">
         <v>9</v>
       </c>
-      <c r="AB2" s="461"/>
-      <c r="AC2" s="462"/>
-      <c r="AD2" s="460">
+      <c r="AB2" s="514"/>
+      <c r="AC2" s="515"/>
+      <c r="AD2" s="513">
         <v>0</v>
       </c>
-      <c r="AE2" s="461"/>
-      <c r="AF2" s="462"/>
-      <c r="AG2" s="487" t="s">
+      <c r="AE2" s="514"/>
+      <c r="AF2" s="515"/>
+      <c r="AG2" s="516" t="s">
         <v>1</v>
       </c>
-      <c r="AH2" s="488"/>
-      <c r="AI2" s="489"/>
+      <c r="AH2" s="517"/>
+      <c r="AI2" s="518"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="463"/>
-      <c r="D3" s="464"/>
-      <c r="E3" s="465"/>
-      <c r="F3" s="463"/>
-      <c r="G3" s="464"/>
-      <c r="H3" s="465"/>
-      <c r="I3" s="480"/>
-      <c r="J3" s="481"/>
-      <c r="K3" s="482"/>
-      <c r="L3" s="480"/>
-      <c r="M3" s="481"/>
-      <c r="N3" s="482"/>
-      <c r="O3" s="480"/>
-      <c r="P3" s="481"/>
-      <c r="Q3" s="482"/>
-      <c r="R3" s="480"/>
-      <c r="S3" s="481"/>
-      <c r="T3" s="482"/>
-      <c r="U3" s="480"/>
-      <c r="V3" s="481"/>
-      <c r="W3" s="482"/>
-      <c r="X3" s="454"/>
-      <c r="Y3" s="455"/>
-      <c r="Z3" s="456"/>
-      <c r="AA3" s="473" t="s">
+      <c r="C3" s="500"/>
+      <c r="D3" s="501"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="500"/>
+      <c r="G3" s="501"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="503"/>
+      <c r="J3" s="504"/>
+      <c r="K3" s="505"/>
+      <c r="L3" s="503"/>
+      <c r="M3" s="504"/>
+      <c r="N3" s="505"/>
+      <c r="O3" s="503"/>
+      <c r="P3" s="504"/>
+      <c r="Q3" s="505"/>
+      <c r="R3" s="503"/>
+      <c r="S3" s="504"/>
+      <c r="T3" s="505"/>
+      <c r="U3" s="503"/>
+      <c r="V3" s="504"/>
+      <c r="W3" s="505"/>
+      <c r="X3" s="519"/>
+      <c r="Y3" s="520"/>
+      <c r="Z3" s="521"/>
+      <c r="AA3" s="506" t="s">
         <v>361</v>
       </c>
-      <c r="AB3" s="474"/>
-      <c r="AC3" s="475"/>
-      <c r="AD3" s="473" t="s">
+      <c r="AB3" s="507"/>
+      <c r="AC3" s="508"/>
+      <c r="AD3" s="506" t="s">
         <v>362</v>
       </c>
-      <c r="AE3" s="474"/>
-      <c r="AF3" s="475"/>
-      <c r="AG3" s="483" t="s">
+      <c r="AE3" s="507"/>
+      <c r="AF3" s="508"/>
+      <c r="AG3" s="509" t="s">
         <v>363</v>
       </c>
-      <c r="AH3" s="474"/>
-      <c r="AI3" s="475"/>
+      <c r="AH3" s="507"/>
+      <c r="AI3" s="508"/>
     </row>
     <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="466" t="s">
+      <c r="D4" s="497" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="467"/>
-      <c r="F4" s="468"/>
-      <c r="G4" s="466" t="s">
+      <c r="E4" s="498"/>
+      <c r="F4" s="499"/>
+      <c r="G4" s="497" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="467"/>
-      <c r="I4" s="468"/>
-      <c r="J4" s="466" t="s">
+      <c r="H4" s="498"/>
+      <c r="I4" s="499"/>
+      <c r="J4" s="497" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="467"/>
-      <c r="L4" s="468"/>
-      <c r="M4" s="466" t="s">
+      <c r="K4" s="498"/>
+      <c r="L4" s="499"/>
+      <c r="M4" s="497" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="467"/>
-      <c r="O4" s="468"/>
-      <c r="P4" s="466" t="s">
+      <c r="N4" s="498"/>
+      <c r="O4" s="499"/>
+      <c r="P4" s="497" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="467"/>
-      <c r="R4" s="468"/>
-      <c r="S4" s="466" t="s">
+      <c r="Q4" s="498"/>
+      <c r="R4" s="499"/>
+      <c r="S4" s="497" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="467"/>
-      <c r="U4" s="468"/>
-      <c r="V4" s="457" t="s">
+      <c r="T4" s="498"/>
+      <c r="U4" s="499"/>
+      <c r="V4" s="510" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="458"/>
-      <c r="X4" s="459"/>
-      <c r="Y4" s="457" t="s">
+      <c r="W4" s="511"/>
+      <c r="X4" s="512"/>
+      <c r="Y4" s="510" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="458"/>
-      <c r="AA4" s="459"/>
-      <c r="AB4" s="457" t="s">
+      <c r="Z4" s="511"/>
+      <c r="AA4" s="512"/>
+      <c r="AB4" s="510" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="458"/>
-      <c r="AD4" s="459"/>
-      <c r="AE4" s="457" t="s">
+      <c r="AC4" s="511"/>
+      <c r="AD4" s="512"/>
+      <c r="AE4" s="510" t="s">
         <v>48</v>
       </c>
-      <c r="AF4" s="458"/>
-      <c r="AG4" s="459"/>
-      <c r="AH4" s="460" t="s">
+      <c r="AF4" s="511"/>
+      <c r="AG4" s="512"/>
+      <c r="AH4" s="513" t="s">
         <v>357</v>
       </c>
-      <c r="AI4" s="461"/>
-      <c r="AJ4" s="462"/>
-      <c r="AK4" s="460" t="s">
+      <c r="AI4" s="514"/>
+      <c r="AJ4" s="515"/>
+      <c r="AK4" s="513" t="s">
         <v>358</v>
       </c>
-      <c r="AL4" s="461"/>
-      <c r="AM4" s="462"/>
-      <c r="AN4" s="477" t="s">
+      <c r="AL4" s="514"/>
+      <c r="AM4" s="515"/>
+      <c r="AN4" s="522" t="s">
         <v>360</v>
       </c>
-      <c r="AO4" s="478"/>
-      <c r="AP4" s="479"/>
+      <c r="AO4" s="523"/>
+      <c r="AP4" s="524"/>
     </row>
     <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="463"/>
-      <c r="E5" s="464"/>
-      <c r="F5" s="465"/>
-      <c r="G5" s="463"/>
-      <c r="H5" s="464"/>
-      <c r="I5" s="465"/>
-      <c r="J5" s="463"/>
-      <c r="K5" s="464"/>
-      <c r="L5" s="465"/>
-      <c r="M5" s="463"/>
-      <c r="N5" s="464"/>
-      <c r="O5" s="465"/>
-      <c r="P5" s="469"/>
-      <c r="Q5" s="470"/>
-      <c r="R5" s="471"/>
-      <c r="S5" s="463"/>
-      <c r="T5" s="464"/>
-      <c r="U5" s="465"/>
-      <c r="V5" s="454"/>
-      <c r="W5" s="455"/>
-      <c r="X5" s="456"/>
-      <c r="Y5" s="454"/>
-      <c r="Z5" s="455"/>
-      <c r="AA5" s="456"/>
-      <c r="AB5" s="454"/>
-      <c r="AC5" s="455"/>
-      <c r="AD5" s="456"/>
-      <c r="AE5" s="454"/>
-      <c r="AF5" s="455"/>
-      <c r="AG5" s="456"/>
-      <c r="AH5" s="418" t="s">
+      <c r="D5" s="500"/>
+      <c r="E5" s="501"/>
+      <c r="F5" s="502"/>
+      <c r="G5" s="500"/>
+      <c r="H5" s="501"/>
+      <c r="I5" s="502"/>
+      <c r="J5" s="500"/>
+      <c r="K5" s="501"/>
+      <c r="L5" s="502"/>
+      <c r="M5" s="500"/>
+      <c r="N5" s="501"/>
+      <c r="O5" s="502"/>
+      <c r="P5" s="525"/>
+      <c r="Q5" s="526"/>
+      <c r="R5" s="527"/>
+      <c r="S5" s="500"/>
+      <c r="T5" s="501"/>
+      <c r="U5" s="502"/>
+      <c r="V5" s="519"/>
+      <c r="W5" s="520"/>
+      <c r="X5" s="521"/>
+      <c r="Y5" s="519"/>
+      <c r="Z5" s="520"/>
+      <c r="AA5" s="521"/>
+      <c r="AB5" s="519"/>
+      <c r="AC5" s="520"/>
+      <c r="AD5" s="521"/>
+      <c r="AE5" s="519"/>
+      <c r="AF5" s="520"/>
+      <c r="AG5" s="521"/>
+      <c r="AH5" s="451" t="s">
         <v>364</v>
       </c>
-      <c r="AI5" s="419"/>
-      <c r="AJ5" s="420"/>
-      <c r="AK5" s="418" t="s">
+      <c r="AI5" s="452"/>
+      <c r="AJ5" s="453"/>
+      <c r="AK5" s="451" t="s">
         <v>365</v>
       </c>
-      <c r="AL5" s="419"/>
-      <c r="AM5" s="420"/>
-      <c r="AN5" s="418" t="s">
+      <c r="AL5" s="452"/>
+      <c r="AM5" s="453"/>
+      <c r="AN5" s="451" t="s">
         <v>366</v>
       </c>
-      <c r="AO5" s="419"/>
-      <c r="AP5" s="420"/>
+      <c r="AO5" s="452"/>
+      <c r="AP5" s="453"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="466" t="s">
+      <c r="E6" s="497" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="467"/>
-      <c r="G6" s="468"/>
-      <c r="H6" s="466" t="s">
+      <c r="F6" s="498"/>
+      <c r="G6" s="499"/>
+      <c r="H6" s="497" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="467"/>
-      <c r="J6" s="468"/>
-      <c r="K6" s="466" t="s">
+      <c r="I6" s="498"/>
+      <c r="J6" s="499"/>
+      <c r="K6" s="497" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="467"/>
-      <c r="M6" s="468"/>
-      <c r="N6" s="466" t="s">
+      <c r="L6" s="498"/>
+      <c r="M6" s="499"/>
+      <c r="N6" s="497" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="467"/>
-      <c r="P6" s="468"/>
-      <c r="Q6" s="466" t="s">
+      <c r="O6" s="498"/>
+      <c r="P6" s="499"/>
+      <c r="Q6" s="497" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="467"/>
-      <c r="S6" s="468"/>
-      <c r="T6" s="466" t="s">
+      <c r="R6" s="498"/>
+      <c r="S6" s="499"/>
+      <c r="T6" s="497" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="467"/>
-      <c r="V6" s="468"/>
-      <c r="W6" s="457" t="s">
+      <c r="U6" s="498"/>
+      <c r="V6" s="499"/>
+      <c r="W6" s="510" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="458"/>
-      <c r="Y6" s="459"/>
-      <c r="Z6" s="457" t="s">
+      <c r="X6" s="511"/>
+      <c r="Y6" s="512"/>
+      <c r="Z6" s="510" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="458"/>
-      <c r="AB6" s="459"/>
-      <c r="AC6" s="457" t="s">
+      <c r="AA6" s="511"/>
+      <c r="AB6" s="512"/>
+      <c r="AC6" s="510" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="458"/>
-      <c r="AE6" s="459"/>
-      <c r="AF6" s="460" t="s">
+      <c r="AD6" s="511"/>
+      <c r="AE6" s="512"/>
+      <c r="AF6" s="513" t="s">
         <v>287</v>
       </c>
-      <c r="AG6" s="461"/>
-      <c r="AH6" s="462"/>
-      <c r="AI6" s="457" t="s">
+      <c r="AG6" s="514"/>
+      <c r="AH6" s="515"/>
+      <c r="AI6" s="510" t="s">
         <v>359</v>
       </c>
-      <c r="AJ6" s="458"/>
-      <c r="AK6" s="459"/>
+      <c r="AJ6" s="511"/>
+      <c r="AK6" s="512"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="463"/>
-      <c r="F7" s="464"/>
-      <c r="G7" s="465"/>
-      <c r="H7" s="463"/>
-      <c r="I7" s="464"/>
-      <c r="J7" s="465"/>
-      <c r="K7" s="463"/>
-      <c r="L7" s="464"/>
-      <c r="M7" s="465"/>
-      <c r="N7" s="463"/>
-      <c r="O7" s="464"/>
-      <c r="P7" s="465"/>
-      <c r="Q7" s="476"/>
-      <c r="R7" s="470"/>
-      <c r="S7" s="471"/>
-      <c r="T7" s="463"/>
-      <c r="U7" s="464"/>
-      <c r="V7" s="465"/>
-      <c r="W7" s="454"/>
-      <c r="X7" s="455"/>
-      <c r="Y7" s="456"/>
-      <c r="Z7" s="454"/>
-      <c r="AA7" s="455"/>
-      <c r="AB7" s="456"/>
-      <c r="AC7" s="472"/>
-      <c r="AD7" s="455"/>
-      <c r="AE7" s="456"/>
-      <c r="AF7" s="473" t="s">
+      <c r="E7" s="500"/>
+      <c r="F7" s="501"/>
+      <c r="G7" s="502"/>
+      <c r="H7" s="500"/>
+      <c r="I7" s="501"/>
+      <c r="J7" s="502"/>
+      <c r="K7" s="500"/>
+      <c r="L7" s="501"/>
+      <c r="M7" s="502"/>
+      <c r="N7" s="500"/>
+      <c r="O7" s="501"/>
+      <c r="P7" s="502"/>
+      <c r="Q7" s="528"/>
+      <c r="R7" s="526"/>
+      <c r="S7" s="527"/>
+      <c r="T7" s="500"/>
+      <c r="U7" s="501"/>
+      <c r="V7" s="502"/>
+      <c r="W7" s="519"/>
+      <c r="X7" s="520"/>
+      <c r="Y7" s="521"/>
+      <c r="Z7" s="519"/>
+      <c r="AA7" s="520"/>
+      <c r="AB7" s="521"/>
+      <c r="AC7" s="529"/>
+      <c r="AD7" s="520"/>
+      <c r="AE7" s="521"/>
+      <c r="AF7" s="506" t="s">
         <v>367</v>
       </c>
-      <c r="AG7" s="474"/>
-      <c r="AH7" s="475"/>
-      <c r="AI7" s="473"/>
-      <c r="AJ7" s="474"/>
-      <c r="AK7" s="475"/>
+      <c r="AG7" s="507"/>
+      <c r="AH7" s="508"/>
+      <c r="AI7" s="506"/>
+      <c r="AJ7" s="507"/>
+      <c r="AK7" s="508"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="466" t="s">
+      <c r="F8" s="497" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="467"/>
-      <c r="H8" s="468"/>
-      <c r="I8" s="466" t="s">
+      <c r="G8" s="498"/>
+      <c r="H8" s="499"/>
+      <c r="I8" s="497" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="467"/>
-      <c r="K8" s="468"/>
-      <c r="L8" s="466" t="s">
+      <c r="J8" s="498"/>
+      <c r="K8" s="499"/>
+      <c r="L8" s="497" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="467"/>
-      <c r="N8" s="468"/>
-      <c r="O8" s="466" t="s">
+      <c r="M8" s="498"/>
+      <c r="N8" s="499"/>
+      <c r="O8" s="497" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="467"/>
-      <c r="Q8" s="468"/>
-      <c r="R8" s="466" t="s">
+      <c r="P8" s="498"/>
+      <c r="Q8" s="499"/>
+      <c r="R8" s="497" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="467"/>
-      <c r="T8" s="468"/>
-      <c r="U8" s="466" t="s">
+      <c r="S8" s="498"/>
+      <c r="T8" s="499"/>
+      <c r="U8" s="497" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="467"/>
-      <c r="W8" s="468"/>
-      <c r="X8" s="457" t="s">
+      <c r="V8" s="498"/>
+      <c r="W8" s="499"/>
+      <c r="X8" s="510" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="458"/>
-      <c r="Z8" s="459"/>
-      <c r="AA8" s="457" t="s">
+      <c r="Y8" s="511"/>
+      <c r="Z8" s="512"/>
+      <c r="AA8" s="510" t="s">
         <v>14</v>
       </c>
-      <c r="AB8" s="458"/>
-      <c r="AC8" s="459"/>
-      <c r="AD8" s="457" t="s">
+      <c r="AB8" s="511"/>
+      <c r="AC8" s="512"/>
+      <c r="AD8" s="510" t="s">
         <v>13</v>
       </c>
-      <c r="AE8" s="458"/>
-      <c r="AF8" s="459"/>
-      <c r="AG8" s="460" t="s">
+      <c r="AE8" s="511"/>
+      <c r="AF8" s="512"/>
+      <c r="AG8" s="513" t="s">
         <v>288</v>
       </c>
-      <c r="AH8" s="461"/>
-      <c r="AI8" s="462"/>
+      <c r="AH8" s="514"/>
+      <c r="AI8" s="515"/>
     </row>
     <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="463"/>
-      <c r="G9" s="464"/>
-      <c r="H9" s="465"/>
-      <c r="I9" s="463"/>
-      <c r="J9" s="464"/>
-      <c r="K9" s="465"/>
-      <c r="L9" s="463"/>
-      <c r="M9" s="464"/>
-      <c r="N9" s="465"/>
-      <c r="O9" s="463"/>
-      <c r="P9" s="464"/>
-      <c r="Q9" s="465"/>
-      <c r="R9" s="469"/>
-      <c r="S9" s="470"/>
-      <c r="T9" s="471"/>
-      <c r="U9" s="463"/>
-      <c r="V9" s="464"/>
-      <c r="W9" s="465"/>
-      <c r="X9" s="454"/>
-      <c r="Y9" s="455"/>
-      <c r="Z9" s="456"/>
-      <c r="AA9" s="454"/>
-      <c r="AB9" s="455"/>
-      <c r="AC9" s="456"/>
-      <c r="AD9" s="454"/>
-      <c r="AE9" s="455"/>
-      <c r="AF9" s="456"/>
-      <c r="AG9" s="418" t="s">
+      <c r="F9" s="500"/>
+      <c r="G9" s="501"/>
+      <c r="H9" s="502"/>
+      <c r="I9" s="500"/>
+      <c r="J9" s="501"/>
+      <c r="K9" s="502"/>
+      <c r="L9" s="500"/>
+      <c r="M9" s="501"/>
+      <c r="N9" s="502"/>
+      <c r="O9" s="500"/>
+      <c r="P9" s="501"/>
+      <c r="Q9" s="502"/>
+      <c r="R9" s="525"/>
+      <c r="S9" s="526"/>
+      <c r="T9" s="527"/>
+      <c r="U9" s="500"/>
+      <c r="V9" s="501"/>
+      <c r="W9" s="502"/>
+      <c r="X9" s="519"/>
+      <c r="Y9" s="520"/>
+      <c r="Z9" s="521"/>
+      <c r="AA9" s="519"/>
+      <c r="AB9" s="520"/>
+      <c r="AC9" s="521"/>
+      <c r="AD9" s="519"/>
+      <c r="AE9" s="520"/>
+      <c r="AF9" s="521"/>
+      <c r="AG9" s="451" t="s">
         <v>368</v>
       </c>
-      <c r="AH9" s="419"/>
-      <c r="AI9" s="420"/>
+      <c r="AH9" s="452"/>
+      <c r="AI9" s="453"/>
     </row>
     <row r="13" spans="3:42">
       <c r="D13" s="1" t="s">
@@ -19291,34 +19183,52 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
     <mergeCell ref="AN4:AP4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -19335,52 +19245,34 @@
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="AH4:AJ4"/>
     <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AC6:AE6"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -20373,36 +20265,36 @@
         <v>442</v>
       </c>
       <c r="F8" s="79"/>
-      <c r="G8" s="490" t="s">
+      <c r="G8" s="530" t="s">
         <v>443</v>
       </c>
-      <c r="H8" s="491"/>
-      <c r="I8" s="492"/>
-      <c r="J8" s="493" t="s">
+      <c r="H8" s="531"/>
+      <c r="I8" s="532"/>
+      <c r="J8" s="547" t="s">
         <v>444</v>
       </c>
-      <c r="K8" s="494"/>
-      <c r="L8" s="495"/>
-      <c r="M8" s="493" t="s">
+      <c r="K8" s="548"/>
+      <c r="L8" s="549"/>
+      <c r="M8" s="547" t="s">
         <v>445</v>
       </c>
-      <c r="N8" s="494"/>
-      <c r="O8" s="495"/>
+      <c r="N8" s="548"/>
+      <c r="O8" s="549"/>
       <c r="P8" s="77"/>
       <c r="Q8" s="80" t="s">
         <v>446</v>
       </c>
       <c r="R8" s="79"/>
-      <c r="S8" s="493" t="s">
+      <c r="S8" s="547" t="s">
         <v>447</v>
       </c>
-      <c r="T8" s="494"/>
-      <c r="U8" s="495"/>
-      <c r="V8" s="493" t="s">
+      <c r="T8" s="548"/>
+      <c r="U8" s="549"/>
+      <c r="V8" s="547" t="s">
         <v>448</v>
       </c>
-      <c r="W8" s="494"/>
-      <c r="X8" s="495"/>
+      <c r="W8" s="548"/>
+      <c r="X8" s="549"/>
       <c r="Y8" s="81"/>
       <c r="Z8" s="82" t="s">
         <v>449</v>
@@ -20413,21 +20305,21 @@
         <v>450</v>
       </c>
       <c r="AD8" s="83"/>
-      <c r="AE8" s="507" t="s">
+      <c r="AE8" s="538" t="s">
         <v>451</v>
       </c>
-      <c r="AF8" s="508"/>
-      <c r="AG8" s="509"/>
-      <c r="AH8" s="496" t="s">
+      <c r="AF8" s="539"/>
+      <c r="AG8" s="540"/>
+      <c r="AH8" s="533" t="s">
         <v>452</v>
       </c>
-      <c r="AI8" s="497"/>
-      <c r="AJ8" s="498"/>
-      <c r="AK8" s="496" t="s">
+      <c r="AI8" s="534"/>
+      <c r="AJ8" s="535"/>
+      <c r="AK8" s="533" t="s">
         <v>453</v>
       </c>
-      <c r="AL8" s="497"/>
-      <c r="AM8" s="498"/>
+      <c r="AL8" s="534"/>
+      <c r="AM8" s="535"/>
       <c r="AN8" s="76"/>
       <c r="AO8" s="76"/>
       <c r="AP8" s="76"/>
@@ -20495,17 +20387,17 @@
       <c r="I9" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="499" t="s">
+      <c r="J9" s="541" t="s">
         <v>566</v>
       </c>
-      <c r="K9" s="500"/>
+      <c r="K9" s="542"/>
       <c r="L9" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="M9" s="501" t="s">
+      <c r="M9" s="543" t="s">
         <v>569</v>
       </c>
-      <c r="N9" s="502"/>
+      <c r="N9" s="544"/>
       <c r="O9" s="101" t="s">
         <v>460</v>
       </c>
@@ -20515,17 +20407,17 @@
       <c r="R9" s="102" t="s">
         <v>519</v>
       </c>
-      <c r="S9" s="501" t="s">
+      <c r="S9" s="543" t="s">
         <v>571</v>
       </c>
-      <c r="T9" s="502"/>
+      <c r="T9" s="544"/>
       <c r="U9" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="V9" s="503" t="s">
+      <c r="V9" s="545" t="s">
         <v>568</v>
       </c>
-      <c r="W9" s="504"/>
+      <c r="W9" s="546"/>
       <c r="X9" s="101" t="s">
         <v>462</v>
       </c>
@@ -20551,8 +20443,8 @@
       <c r="AJ9" s="104" t="s">
         <v>562</v>
       </c>
-      <c r="AK9" s="505"/>
-      <c r="AL9" s="506"/>
+      <c r="AK9" s="536"/>
+      <c r="AL9" s="537"/>
       <c r="AM9" s="105"/>
       <c r="AN9" s="49"/>
       <c r="AO9" s="49"/>
@@ -20619,31 +20511,31 @@
       <c r="B10" s="59"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
-      <c r="E10" s="490" t="s">
+      <c r="E10" s="530" t="s">
         <v>465</v>
       </c>
-      <c r="F10" s="491"/>
-      <c r="G10" s="492"/>
-      <c r="H10" s="490" t="s">
+      <c r="F10" s="531"/>
+      <c r="G10" s="532"/>
+      <c r="H10" s="530" t="s">
         <v>466</v>
       </c>
-      <c r="I10" s="491"/>
-      <c r="J10" s="492"/>
+      <c r="I10" s="531"/>
+      <c r="J10" s="532"/>
       <c r="K10" s="77"/>
       <c r="L10" s="78" t="s">
         <v>467</v>
       </c>
       <c r="M10" s="79"/>
-      <c r="N10" s="490" t="s">
+      <c r="N10" s="530" t="s">
         <v>468</v>
       </c>
-      <c r="O10" s="491"/>
-      <c r="P10" s="492"/>
-      <c r="Q10" s="490" t="s">
+      <c r="O10" s="531"/>
+      <c r="P10" s="532"/>
+      <c r="Q10" s="530" t="s">
         <v>299</v>
       </c>
-      <c r="R10" s="491"/>
-      <c r="S10" s="492"/>
+      <c r="R10" s="531"/>
+      <c r="S10" s="532"/>
       <c r="T10" s="77"/>
       <c r="U10" s="78" t="s">
         <v>469</v>
@@ -20659,31 +20551,31 @@
         <v>471</v>
       </c>
       <c r="AB10" s="83"/>
-      <c r="AC10" s="507" t="s">
+      <c r="AC10" s="538" t="s">
         <v>472</v>
       </c>
-      <c r="AD10" s="508"/>
-      <c r="AE10" s="509"/>
-      <c r="AF10" s="507" t="s">
+      <c r="AD10" s="539"/>
+      <c r="AE10" s="540"/>
+      <c r="AF10" s="538" t="s">
         <v>297</v>
       </c>
-      <c r="AG10" s="508"/>
-      <c r="AH10" s="509"/>
-      <c r="AI10" s="507" t="s">
+      <c r="AG10" s="539"/>
+      <c r="AH10" s="540"/>
+      <c r="AI10" s="538" t="s">
         <v>473</v>
       </c>
-      <c r="AJ10" s="508"/>
-      <c r="AK10" s="509"/>
-      <c r="AL10" s="507" t="s">
+      <c r="AJ10" s="539"/>
+      <c r="AK10" s="540"/>
+      <c r="AL10" s="538" t="s">
         <v>474</v>
       </c>
-      <c r="AM10" s="508"/>
-      <c r="AN10" s="509"/>
-      <c r="AO10" s="496" t="s">
+      <c r="AM10" s="539"/>
+      <c r="AN10" s="540"/>
+      <c r="AO10" s="533" t="s">
         <v>475</v>
       </c>
-      <c r="AP10" s="497"/>
-      <c r="AQ10" s="498"/>
+      <c r="AP10" s="534"/>
+      <c r="AQ10" s="535"/>
       <c r="AR10" s="76"/>
       <c r="AV10" s="106" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -20802,14 +20694,14 @@
       <c r="AH11" s="104" t="s">
         <v>331</v>
       </c>
-      <c r="AI11" s="505"/>
-      <c r="AJ11" s="506"/>
+      <c r="AI11" s="536"/>
+      <c r="AJ11" s="537"/>
       <c r="AK11" s="105"/>
-      <c r="AL11" s="505"/>
-      <c r="AM11" s="506"/>
+      <c r="AL11" s="536"/>
+      <c r="AM11" s="537"/>
       <c r="AN11" s="105"/>
-      <c r="AO11" s="505"/>
-      <c r="AP11" s="506"/>
+      <c r="AO11" s="536"/>
+      <c r="AP11" s="537"/>
       <c r="AQ11" s="105"/>
       <c r="AR11" s="76"/>
       <c r="AV11" s="106" cm="1">
@@ -20870,61 +20762,61 @@
       <c r="C12" s="76"/>
       <c r="D12" s="76"/>
       <c r="E12" s="119"/>
-      <c r="F12" s="490" t="s">
+      <c r="F12" s="530" t="s">
         <v>480</v>
       </c>
-      <c r="G12" s="491"/>
-      <c r="H12" s="492"/>
-      <c r="I12" s="490" t="s">
+      <c r="G12" s="531"/>
+      <c r="H12" s="532"/>
+      <c r="I12" s="530" t="s">
         <v>481</v>
       </c>
-      <c r="J12" s="491"/>
-      <c r="K12" s="492"/>
-      <c r="L12" s="490" t="s">
+      <c r="J12" s="531"/>
+      <c r="K12" s="532"/>
+      <c r="L12" s="530" t="s">
         <v>321</v>
       </c>
-      <c r="M12" s="491"/>
-      <c r="N12" s="492"/>
-      <c r="O12" s="490" t="s">
+      <c r="M12" s="531"/>
+      <c r="N12" s="532"/>
+      <c r="O12" s="530" t="s">
         <v>482</v>
       </c>
-      <c r="P12" s="491"/>
-      <c r="Q12" s="492"/>
-      <c r="R12" s="490" t="s">
+      <c r="P12" s="531"/>
+      <c r="Q12" s="532"/>
+      <c r="R12" s="530" t="s">
         <v>325</v>
       </c>
-      <c r="S12" s="491"/>
-      <c r="T12" s="492"/>
-      <c r="U12" s="490" t="s">
+      <c r="S12" s="531"/>
+      <c r="T12" s="532"/>
+      <c r="U12" s="530" t="s">
         <v>483</v>
       </c>
-      <c r="V12" s="491"/>
-      <c r="W12" s="492"/>
+      <c r="V12" s="531"/>
+      <c r="W12" s="532"/>
       <c r="X12" s="81"/>
       <c r="Y12" s="82" t="s">
         <v>484</v>
       </c>
       <c r="Z12" s="83"/>
-      <c r="AA12" s="507" t="s">
+      <c r="AA12" s="538" t="s">
         <v>302</v>
       </c>
-      <c r="AB12" s="508"/>
-      <c r="AC12" s="509"/>
+      <c r="AB12" s="539"/>
+      <c r="AC12" s="540"/>
       <c r="AD12" s="81"/>
       <c r="AE12" s="82" t="s">
         <v>485</v>
       </c>
       <c r="AF12" s="83"/>
-      <c r="AG12" s="507" t="s">
+      <c r="AG12" s="538" t="s">
         <v>486</v>
       </c>
-      <c r="AH12" s="508"/>
-      <c r="AI12" s="509"/>
-      <c r="AJ12" s="496" t="s">
+      <c r="AH12" s="539"/>
+      <c r="AI12" s="540"/>
+      <c r="AJ12" s="533" t="s">
         <v>487</v>
       </c>
-      <c r="AK12" s="497"/>
-      <c r="AL12" s="498"/>
+      <c r="AK12" s="534"/>
+      <c r="AL12" s="535"/>
       <c r="AM12" s="76"/>
       <c r="AN12" s="76"/>
       <c r="AO12" s="76"/>
@@ -21052,8 +20944,8 @@
       <c r="AI13" s="104" t="s">
         <v>341</v>
       </c>
-      <c r="AJ13" s="505"/>
-      <c r="AK13" s="506"/>
+      <c r="AJ13" s="536"/>
+      <c r="AK13" s="537"/>
       <c r="AL13" s="105"/>
       <c r="AM13" s="49"/>
       <c r="AN13" s="49"/>
@@ -21123,56 +21015,56 @@
       <c r="D14" s="76"/>
       <c r="E14" s="76"/>
       <c r="F14" s="76"/>
-      <c r="G14" s="490" t="s">
+      <c r="G14" s="530" t="s">
         <v>492</v>
       </c>
-      <c r="H14" s="491"/>
-      <c r="I14" s="492"/>
-      <c r="J14" s="490" t="s">
+      <c r="H14" s="531"/>
+      <c r="I14" s="532"/>
+      <c r="J14" s="530" t="s">
         <v>493</v>
       </c>
-      <c r="K14" s="491"/>
-      <c r="L14" s="492"/>
-      <c r="M14" s="490" t="s">
+      <c r="K14" s="531"/>
+      <c r="L14" s="532"/>
+      <c r="M14" s="530" t="s">
         <v>306</v>
       </c>
-      <c r="N14" s="491"/>
-      <c r="O14" s="492"/>
-      <c r="P14" s="490" t="s">
+      <c r="N14" s="531"/>
+      <c r="O14" s="532"/>
+      <c r="P14" s="530" t="s">
         <v>494</v>
       </c>
-      <c r="Q14" s="491"/>
-      <c r="R14" s="492"/>
-      <c r="S14" s="490" t="s">
+      <c r="Q14" s="531"/>
+      <c r="R14" s="532"/>
+      <c r="S14" s="530" t="s">
         <v>319</v>
       </c>
-      <c r="T14" s="491"/>
-      <c r="U14" s="492"/>
-      <c r="V14" s="490" t="s">
+      <c r="T14" s="531"/>
+      <c r="U14" s="532"/>
+      <c r="V14" s="530" t="s">
         <v>495</v>
       </c>
-      <c r="W14" s="491"/>
-      <c r="X14" s="492"/>
-      <c r="Y14" s="507" t="s">
+      <c r="W14" s="531"/>
+      <c r="X14" s="532"/>
+      <c r="Y14" s="538" t="s">
         <v>496</v>
       </c>
-      <c r="Z14" s="508"/>
-      <c r="AA14" s="509"/>
+      <c r="Z14" s="539"/>
+      <c r="AA14" s="540"/>
       <c r="AB14" s="81"/>
       <c r="AC14" s="82" t="s">
         <v>497</v>
       </c>
       <c r="AD14" s="83"/>
-      <c r="AE14" s="507" t="s">
+      <c r="AE14" s="538" t="s">
         <v>498</v>
       </c>
-      <c r="AF14" s="508"/>
-      <c r="AG14" s="509"/>
-      <c r="AH14" s="496" t="s">
+      <c r="AF14" s="539"/>
+      <c r="AG14" s="540"/>
+      <c r="AH14" s="533" t="s">
         <v>499</v>
       </c>
-      <c r="AI14" s="497"/>
-      <c r="AJ14" s="498"/>
+      <c r="AI14" s="534"/>
+      <c r="AJ14" s="535"/>
       <c r="AK14" s="76"/>
       <c r="AL14" s="76"/>
       <c r="AM14" s="76"/>
@@ -25175,16 +25067,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -25201,24 +25101,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26004,7 +25896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="26.25"/>
   <cols>
@@ -27272,16 +27166,16 @@
       <c r="C2" s="331" t="s">
         <v>824</v>
       </c>
-      <c r="P2" s="378" t="s">
+      <c r="P2" s="415" t="s">
         <v>870</v>
       </c>
-      <c r="Q2" s="379"/>
-      <c r="R2" s="379"/>
-      <c r="S2" s="379"/>
-      <c r="T2" s="379"/>
-      <c r="U2" s="379"/>
-      <c r="V2" s="379"/>
-      <c r="W2" s="379"/>
+      <c r="Q2" s="416"/>
+      <c r="R2" s="416"/>
+      <c r="S2" s="416"/>
+      <c r="T2" s="416"/>
+      <c r="U2" s="416"/>
+      <c r="V2" s="416"/>
+      <c r="W2" s="416"/>
     </row>
     <row r="3" spans="2:23" ht="8.25" customHeight="1">
       <c r="P3" s="330"/>
@@ -27294,23 +27188,23 @@
       <c r="W3"/>
     </row>
     <row r="4" spans="2:23">
-      <c r="B4" s="375"/>
-      <c r="C4" s="377" t="s">
+      <c r="B4" s="420"/>
+      <c r="C4" s="422" t="s">
         <v>926</v>
       </c>
-      <c r="D4" s="377"/>
-      <c r="E4" s="377"/>
-      <c r="F4" s="377"/>
-      <c r="G4" s="377"/>
-      <c r="H4" s="377"/>
-      <c r="I4" s="377"/>
-      <c r="J4" s="377"/>
-      <c r="K4" s="377" t="s">
+      <c r="D4" s="422"/>
+      <c r="E4" s="422"/>
+      <c r="F4" s="422"/>
+      <c r="G4" s="422"/>
+      <c r="H4" s="422"/>
+      <c r="I4" s="422"/>
+      <c r="J4" s="422"/>
+      <c r="K4" s="422" t="s">
         <v>927</v>
       </c>
-      <c r="L4" s="377"/>
-      <c r="M4" s="377"/>
-      <c r="N4" s="377"/>
+      <c r="L4" s="422"/>
+      <c r="M4" s="422"/>
+      <c r="N4" s="422"/>
       <c r="P4" s="330"/>
       <c r="Q4"/>
       <c r="R4"/>
@@ -27321,45 +27215,45 @@
       <c r="W4"/>
     </row>
     <row r="5" spans="2:23">
-      <c r="B5" s="376"/>
-      <c r="C5" s="377" t="s">
+      <c r="B5" s="421"/>
+      <c r="C5" s="422" t="s">
         <v>825</v>
       </c>
-      <c r="D5" s="377"/>
-      <c r="E5" s="377" t="s">
+      <c r="D5" s="422"/>
+      <c r="E5" s="422" t="s">
         <v>826</v>
       </c>
-      <c r="F5" s="377"/>
-      <c r="G5" s="377" t="s">
+      <c r="F5" s="422"/>
+      <c r="G5" s="422" t="s">
         <v>827</v>
       </c>
-      <c r="H5" s="377"/>
-      <c r="I5" s="377" t="s">
+      <c r="H5" s="422"/>
+      <c r="I5" s="422" t="s">
         <v>828</v>
       </c>
-      <c r="J5" s="377"/>
-      <c r="K5" s="377" t="s">
+      <c r="J5" s="422"/>
+      <c r="K5" s="422" t="s">
         <v>825</v>
       </c>
-      <c r="L5" s="377"/>
-      <c r="M5" s="377" t="s">
+      <c r="L5" s="422"/>
+      <c r="M5" s="422" t="s">
         <v>827</v>
       </c>
-      <c r="N5" s="377"/>
-      <c r="P5" s="380"/>
-      <c r="Q5" s="381" t="s">
+      <c r="N5" s="422"/>
+      <c r="P5" s="417"/>
+      <c r="Q5" s="418" t="s">
         <v>871</v>
       </c>
-      <c r="R5" s="381"/>
-      <c r="S5" s="381"/>
-      <c r="T5" s="382" t="s">
+      <c r="R5" s="418"/>
+      <c r="S5" s="418"/>
+      <c r="T5" s="419" t="s">
         <v>872</v>
       </c>
-      <c r="U5" s="382" t="s">
+      <c r="U5" s="419" t="s">
         <v>927</v>
       </c>
-      <c r="V5" s="382"/>
-      <c r="W5" s="382" t="s">
+      <c r="V5" s="419"/>
+      <c r="W5" s="419" t="s">
         <v>873</v>
       </c>
     </row>
@@ -27395,7 +27289,7 @@
       <c r="L6" s="350"/>
       <c r="M6" s="354"/>
       <c r="N6" s="343"/>
-      <c r="P6" s="380"/>
+      <c r="P6" s="417"/>
       <c r="Q6" s="333" t="s">
         <v>825</v>
       </c>
@@ -27405,14 +27299,14 @@
       <c r="S6" s="333" t="s">
         <v>874</v>
       </c>
-      <c r="T6" s="382"/>
+      <c r="T6" s="419"/>
       <c r="U6" s="332" t="s">
         <v>825</v>
       </c>
       <c r="V6" s="332" t="s">
         <v>874</v>
       </c>
-      <c r="W6" s="382"/>
+      <c r="W6" s="419"/>
     </row>
     <row r="7" spans="2:23" ht="33">
       <c r="B7" s="346" t="s">
@@ -28005,12 +27899,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:W6"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
@@ -28020,6 +27908,12 @@
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="K4:N4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:W6"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <hyperlinks>
@@ -32085,506 +31979,506 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="386" t="s">
+      <c r="C2" s="463" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="386" t="s">
+      <c r="D2" s="464"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="463" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="387"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="383" t="s">
+      <c r="G2" s="464"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="460" t="s">
         <v>388</v>
       </c>
-      <c r="J2" s="384"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="383" t="s">
+      <c r="J2" s="461"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="460" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="384"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="389" t="s">
+      <c r="M2" s="461"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="466" t="s">
         <v>390</v>
       </c>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="383" t="s">
+      <c r="P2" s="461"/>
+      <c r="Q2" s="462"/>
+      <c r="R2" s="460" t="s">
         <v>391</v>
       </c>
-      <c r="S2" s="384"/>
-      <c r="T2" s="385"/>
-      <c r="U2" s="383" t="s">
+      <c r="S2" s="461"/>
+      <c r="T2" s="462"/>
+      <c r="U2" s="460" t="s">
         <v>392</v>
       </c>
-      <c r="V2" s="384"/>
-      <c r="W2" s="385"/>
-      <c r="X2" s="400" t="s">
+      <c r="V2" s="461"/>
+      <c r="W2" s="462"/>
+      <c r="X2" s="439" t="s">
         <v>393</v>
       </c>
-      <c r="Y2" s="401"/>
-      <c r="Z2" s="402"/>
-      <c r="AA2" s="400" t="s">
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="439" t="s">
         <v>394</v>
       </c>
-      <c r="AB2" s="401"/>
-      <c r="AC2" s="402"/>
-      <c r="AD2" s="400" t="s">
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
+      <c r="AD2" s="439" t="s">
         <v>395</v>
       </c>
-      <c r="AE2" s="401"/>
-      <c r="AF2" s="402"/>
-      <c r="AG2" s="400" t="s">
+      <c r="AE2" s="433"/>
+      <c r="AF2" s="434"/>
+      <c r="AG2" s="439" t="s">
         <v>384</v>
       </c>
-      <c r="AH2" s="401"/>
-      <c r="AI2" s="402"/>
-      <c r="AJ2" s="426" t="s">
+      <c r="AH2" s="433"/>
+      <c r="AI2" s="434"/>
+      <c r="AJ2" s="432" t="s">
         <v>385</v>
       </c>
-      <c r="AK2" s="401"/>
-      <c r="AL2" s="402"/>
+      <c r="AK2" s="433"/>
+      <c r="AL2" s="434"/>
     </row>
     <row r="3" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="390" t="str">
+      <c r="C3" s="440" t="str">
         <f>D15</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="391"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="390" t="str">
+      <c r="D3" s="441"/>
+      <c r="E3" s="442"/>
+      <c r="F3" s="440" t="str">
         <f>H15</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="391"/>
-      <c r="H3" s="392"/>
-      <c r="I3" s="393" t="s">
+      <c r="G3" s="441"/>
+      <c r="H3" s="442"/>
+      <c r="I3" s="454" t="s">
         <v>377</v>
       </c>
-      <c r="J3" s="394"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="393" t="s">
+      <c r="J3" s="455"/>
+      <c r="K3" s="456"/>
+      <c r="L3" s="454" t="s">
         <v>376</v>
       </c>
-      <c r="M3" s="394"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="393" t="s">
+      <c r="M3" s="455"/>
+      <c r="N3" s="456"/>
+      <c r="O3" s="454" t="s">
         <v>379</v>
       </c>
-      <c r="P3" s="394"/>
-      <c r="Q3" s="395"/>
-      <c r="R3" s="393" t="s">
+      <c r="P3" s="455"/>
+      <c r="Q3" s="456"/>
+      <c r="R3" s="454" t="s">
         <v>378</v>
       </c>
-      <c r="S3" s="394"/>
-      <c r="T3" s="395"/>
-      <c r="U3" s="406" t="s">
+      <c r="S3" s="455"/>
+      <c r="T3" s="456"/>
+      <c r="U3" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="V3" s="407"/>
-      <c r="W3" s="408"/>
-      <c r="X3" s="409" t="str">
+      <c r="V3" s="458"/>
+      <c r="W3" s="459"/>
+      <c r="X3" s="423" t="str">
         <f>D21</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="410"/>
-      <c r="Z3" s="411"/>
-      <c r="AA3" s="396" t="str">
+      <c r="Y3" s="424"/>
+      <c r="Z3" s="425"/>
+      <c r="AA3" s="429" t="str">
         <f xml:space="preserve"> K21</f>
         <v>ㄞ</v>
       </c>
-      <c r="AB3" s="397"/>
-      <c r="AC3" s="398"/>
-      <c r="AD3" s="396" t="str">
+      <c r="AB3" s="430"/>
+      <c r="AC3" s="431"/>
+      <c r="AD3" s="429" t="str">
         <f>R21</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE3" s="397"/>
-      <c r="AF3" s="398"/>
-      <c r="AG3" s="399" t="s">
+      <c r="AE3" s="430"/>
+      <c r="AF3" s="431"/>
+      <c r="AG3" s="435" t="s">
         <v>374</v>
       </c>
-      <c r="AH3" s="397"/>
-      <c r="AI3" s="398"/>
-      <c r="AJ3" s="399"/>
-      <c r="AK3" s="397"/>
-      <c r="AL3" s="398"/>
+      <c r="AH3" s="430"/>
+      <c r="AI3" s="431"/>
+      <c r="AJ3" s="435"/>
+      <c r="AK3" s="430"/>
+      <c r="AL3" s="431"/>
     </row>
     <row r="4" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="403" t="s">
+      <c r="D4" s="443" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="404"/>
-      <c r="F4" s="405"/>
-      <c r="G4" s="403" t="s">
+      <c r="E4" s="444"/>
+      <c r="F4" s="445"/>
+      <c r="G4" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="404"/>
-      <c r="I4" s="405"/>
-      <c r="J4" s="403" t="s">
+      <c r="H4" s="444"/>
+      <c r="I4" s="445"/>
+      <c r="J4" s="443" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="404"/>
-      <c r="L4" s="405"/>
-      <c r="M4" s="403" t="s">
+      <c r="K4" s="444"/>
+      <c r="L4" s="445"/>
+      <c r="M4" s="443" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="404"/>
-      <c r="O4" s="405"/>
-      <c r="P4" s="403" t="s">
+      <c r="N4" s="444"/>
+      <c r="O4" s="445"/>
+      <c r="P4" s="443" t="s">
         <v>43</v>
       </c>
-      <c r="Q4" s="404"/>
-      <c r="R4" s="405"/>
-      <c r="S4" s="403" t="s">
+      <c r="Q4" s="444"/>
+      <c r="R4" s="445"/>
+      <c r="S4" s="443" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="404"/>
-      <c r="U4" s="405"/>
-      <c r="V4" s="415" t="s">
+      <c r="T4" s="444"/>
+      <c r="U4" s="445"/>
+      <c r="V4" s="436" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="416"/>
-      <c r="X4" s="417"/>
-      <c r="Y4" s="415" t="s">
+      <c r="W4" s="437"/>
+      <c r="X4" s="438"/>
+      <c r="Y4" s="436" t="s">
         <v>46</v>
       </c>
-      <c r="Z4" s="416"/>
-      <c r="AA4" s="417"/>
-      <c r="AB4" s="415" t="s">
+      <c r="Z4" s="437"/>
+      <c r="AA4" s="438"/>
+      <c r="AB4" s="436" t="s">
         <v>47</v>
       </c>
-      <c r="AC4" s="416"/>
-      <c r="AD4" s="417"/>
-      <c r="AE4" s="415" t="s">
+      <c r="AC4" s="437"/>
+      <c r="AD4" s="438"/>
+      <c r="AE4" s="436" t="s">
         <v>48</v>
       </c>
-      <c r="AF4" s="416"/>
-      <c r="AG4" s="417"/>
-      <c r="AH4" s="400" t="s">
+      <c r="AF4" s="437"/>
+      <c r="AG4" s="438"/>
+      <c r="AH4" s="439" t="s">
         <v>382</v>
       </c>
-      <c r="AI4" s="401"/>
-      <c r="AJ4" s="402"/>
-      <c r="AK4" s="400" t="s">
+      <c r="AI4" s="433"/>
+      <c r="AJ4" s="434"/>
+      <c r="AK4" s="439" t="s">
         <v>383</v>
       </c>
-      <c r="AL4" s="401"/>
-      <c r="AM4" s="402"/>
-      <c r="AN4" s="400" t="s">
+      <c r="AL4" s="433"/>
+      <c r="AM4" s="434"/>
+      <c r="AN4" s="439" t="s">
         <v>381</v>
       </c>
-      <c r="AO4" s="401"/>
-      <c r="AP4" s="402"/>
+      <c r="AO4" s="433"/>
+      <c r="AP4" s="434"/>
     </row>
     <row r="5" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D5" s="390" t="str">
+      <c r="D5" s="440" t="str">
         <f>F15</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="391"/>
-      <c r="F5" s="392"/>
-      <c r="G5" s="390" t="str">
+      <c r="E5" s="441"/>
+      <c r="F5" s="442"/>
+      <c r="G5" s="440" t="str">
         <f>I15</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="391"/>
-      <c r="I5" s="392"/>
-      <c r="J5" s="390" t="str">
+      <c r="H5" s="441"/>
+      <c r="I5" s="442"/>
+      <c r="J5" s="440" t="str">
         <f>L15</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="391"/>
-      <c r="L5" s="392"/>
-      <c r="M5" s="390" t="str">
+      <c r="K5" s="441"/>
+      <c r="L5" s="442"/>
+      <c r="M5" s="440" t="str">
         <f>Q15</f>
         <v>ㄐ</v>
       </c>
-      <c r="N5" s="391"/>
-      <c r="O5" s="392"/>
-      <c r="P5" s="412" t="str">
+      <c r="N5" s="441"/>
+      <c r="O5" s="442"/>
+      <c r="P5" s="446" t="str">
         <f>M15</f>
         <v>ㆣ</v>
       </c>
-      <c r="Q5" s="413"/>
-      <c r="R5" s="414"/>
-      <c r="S5" s="390" t="str">
+      <c r="Q5" s="447"/>
+      <c r="R5" s="448"/>
+      <c r="S5" s="440" t="str">
         <f>U15</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="391"/>
-      <c r="U5" s="392"/>
-      <c r="V5" s="409" t="str">
+      <c r="T5" s="441"/>
+      <c r="U5" s="442"/>
+      <c r="V5" s="423" t="str">
         <f>X21</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="410"/>
-      <c r="X5" s="411"/>
-      <c r="Y5" s="409" t="str">
+      <c r="W5" s="424"/>
+      <c r="X5" s="425"/>
+      <c r="Y5" s="423" t="str">
         <f>F21</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="410"/>
-      <c r="AA5" s="411"/>
-      <c r="AB5" s="409" t="str">
+      <c r="Z5" s="424"/>
+      <c r="AA5" s="425"/>
+      <c r="AB5" s="423" t="str">
         <f>I21</f>
         <v>ㆤ</v>
       </c>
-      <c r="AC5" s="410"/>
-      <c r="AD5" s="411"/>
-      <c r="AE5" s="409" t="str">
+      <c r="AC5" s="424"/>
+      <c r="AD5" s="425"/>
+      <c r="AE5" s="423" t="str">
         <f>S21</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="410"/>
-      <c r="AG5" s="411"/>
-      <c r="AH5" s="418"/>
-      <c r="AI5" s="419"/>
-      <c r="AJ5" s="420"/>
-      <c r="AK5" s="418"/>
-      <c r="AL5" s="419"/>
-      <c r="AM5" s="420"/>
-      <c r="AN5" s="418"/>
-      <c r="AO5" s="419"/>
-      <c r="AP5" s="420"/>
+      <c r="AF5" s="424"/>
+      <c r="AG5" s="425"/>
+      <c r="AH5" s="451"/>
+      <c r="AI5" s="452"/>
+      <c r="AJ5" s="453"/>
+      <c r="AK5" s="451"/>
+      <c r="AL5" s="452"/>
+      <c r="AM5" s="453"/>
+      <c r="AN5" s="451"/>
+      <c r="AO5" s="452"/>
+      <c r="AP5" s="453"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="3"/>
-      <c r="E6" s="403" t="s">
+      <c r="E6" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="404"/>
-      <c r="G6" s="405"/>
-      <c r="H6" s="403" t="s">
+      <c r="F6" s="444"/>
+      <c r="G6" s="445"/>
+      <c r="H6" s="443" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="404"/>
-      <c r="J6" s="405"/>
-      <c r="K6" s="403" t="s">
+      <c r="I6" s="444"/>
+      <c r="J6" s="445"/>
+      <c r="K6" s="443" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="404"/>
-      <c r="M6" s="405"/>
-      <c r="N6" s="403" t="s">
+      <c r="L6" s="444"/>
+      <c r="M6" s="445"/>
+      <c r="N6" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="404"/>
-      <c r="P6" s="405"/>
-      <c r="Q6" s="403" t="s">
+      <c r="O6" s="444"/>
+      <c r="P6" s="445"/>
+      <c r="Q6" s="443" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="404"/>
-      <c r="S6" s="405"/>
-      <c r="T6" s="403" t="s">
+      <c r="R6" s="444"/>
+      <c r="S6" s="445"/>
+      <c r="T6" s="443" t="s">
         <v>30</v>
       </c>
-      <c r="U6" s="404"/>
-      <c r="V6" s="405"/>
-      <c r="W6" s="415" t="s">
+      <c r="U6" s="444"/>
+      <c r="V6" s="445"/>
+      <c r="W6" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="X6" s="416"/>
-      <c r="Y6" s="417"/>
-      <c r="Z6" s="415" t="s">
+      <c r="X6" s="437"/>
+      <c r="Y6" s="438"/>
+      <c r="Z6" s="436" t="s">
         <v>32</v>
       </c>
-      <c r="AA6" s="416"/>
-      <c r="AB6" s="417"/>
-      <c r="AC6" s="415" t="s">
+      <c r="AA6" s="437"/>
+      <c r="AB6" s="438"/>
+      <c r="AC6" s="436" t="s">
         <v>33</v>
       </c>
-      <c r="AD6" s="416"/>
-      <c r="AE6" s="417"/>
-      <c r="AF6" s="400" t="s">
+      <c r="AD6" s="437"/>
+      <c r="AE6" s="438"/>
+      <c r="AF6" s="439" t="s">
         <v>373</v>
       </c>
-      <c r="AG6" s="401"/>
-      <c r="AH6" s="402"/>
-      <c r="AI6" s="400" t="s">
+      <c r="AG6" s="433"/>
+      <c r="AH6" s="434"/>
+      <c r="AI6" s="439" t="s">
         <v>375</v>
       </c>
-      <c r="AJ6" s="401"/>
-      <c r="AK6" s="402"/>
+      <c r="AJ6" s="433"/>
+      <c r="AK6" s="434"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E7" s="390" t="str">
+      <c r="E7" s="440" t="str">
         <f>G15</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="391"/>
-      <c r="G7" s="392"/>
-      <c r="H7" s="390" t="str">
+      <c r="F7" s="441"/>
+      <c r="G7" s="442"/>
+      <c r="H7" s="440" t="str">
         <f>J15</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="391"/>
-      <c r="J7" s="392"/>
-      <c r="K7" s="390" t="str">
+      <c r="I7" s="441"/>
+      <c r="J7" s="442"/>
+      <c r="K7" s="440" t="str">
         <f>N15</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="391"/>
-      <c r="M7" s="392"/>
-      <c r="N7" s="390" t="str">
+      <c r="L7" s="441"/>
+      <c r="M7" s="442"/>
+      <c r="N7" s="440" t="str">
         <f>S15</f>
         <v>ㄑ</v>
       </c>
-      <c r="O7" s="391"/>
-      <c r="P7" s="392"/>
-      <c r="Q7" s="421" t="str">
+      <c r="O7" s="441"/>
+      <c r="P7" s="442"/>
+      <c r="Q7" s="450" t="str">
         <f>O15</f>
         <v>ㄫ</v>
       </c>
-      <c r="R7" s="413"/>
-      <c r="S7" s="414"/>
-      <c r="T7" s="390" t="str">
+      <c r="R7" s="447"/>
+      <c r="S7" s="448"/>
+      <c r="T7" s="440" t="str">
         <f>W15</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="391"/>
-      <c r="V7" s="392"/>
-      <c r="W7" s="409" t="str">
+      <c r="U7" s="441"/>
+      <c r="V7" s="442"/>
+      <c r="W7" s="423" t="str">
         <f>Z21</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="410"/>
-      <c r="Y7" s="411"/>
-      <c r="Z7" s="409" t="str">
+      <c r="X7" s="424"/>
+      <c r="Y7" s="425"/>
+      <c r="Z7" s="423" t="str">
         <f>H21</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="410"/>
-      <c r="AB7" s="411"/>
-      <c r="AC7" s="422" t="str">
+      <c r="AA7" s="424"/>
+      <c r="AB7" s="425"/>
+      <c r="AC7" s="449" t="str">
         <f>M21</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD7" s="410"/>
-      <c r="AE7" s="411"/>
-      <c r="AF7" s="396" t="str">
+      <c r="AD7" s="424"/>
+      <c r="AE7" s="425"/>
+      <c r="AF7" s="429" t="str">
         <f>T21</f>
         <v>ㄤ</v>
       </c>
-      <c r="AG7" s="397"/>
-      <c r="AH7" s="398"/>
-      <c r="AI7" s="396"/>
-      <c r="AJ7" s="397"/>
-      <c r="AK7" s="398"/>
+      <c r="AG7" s="430"/>
+      <c r="AH7" s="431"/>
+      <c r="AI7" s="429"/>
+      <c r="AJ7" s="430"/>
+      <c r="AK7" s="431"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="403" t="s">
+      <c r="F8" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="404"/>
-      <c r="H8" s="405"/>
-      <c r="I8" s="403" t="s">
+      <c r="G8" s="444"/>
+      <c r="H8" s="445"/>
+      <c r="I8" s="443" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="404"/>
-      <c r="K8" s="405"/>
-      <c r="L8" s="403" t="s">
+      <c r="J8" s="444"/>
+      <c r="K8" s="445"/>
+      <c r="L8" s="443" t="s">
         <v>36</v>
       </c>
-      <c r="M8" s="404"/>
-      <c r="N8" s="405"/>
-      <c r="O8" s="403" t="s">
+      <c r="M8" s="444"/>
+      <c r="N8" s="445"/>
+      <c r="O8" s="443" t="s">
         <v>37</v>
       </c>
-      <c r="P8" s="404"/>
-      <c r="Q8" s="405"/>
-      <c r="R8" s="403" t="s">
+      <c r="P8" s="444"/>
+      <c r="Q8" s="445"/>
+      <c r="R8" s="443" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="404"/>
-      <c r="T8" s="405"/>
-      <c r="U8" s="403" t="s">
+      <c r="S8" s="444"/>
+      <c r="T8" s="445"/>
+      <c r="U8" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="V8" s="404"/>
-      <c r="W8" s="405"/>
-      <c r="X8" s="415" t="s">
+      <c r="V8" s="444"/>
+      <c r="W8" s="445"/>
+      <c r="X8" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="416"/>
-      <c r="Z8" s="417"/>
-      <c r="AA8" s="400" t="s">
+      <c r="Y8" s="437"/>
+      <c r="Z8" s="438"/>
+      <c r="AA8" s="439" t="s">
         <v>371</v>
       </c>
-      <c r="AB8" s="401"/>
-      <c r="AC8" s="402"/>
-      <c r="AD8" s="400" t="s">
+      <c r="AB8" s="433"/>
+      <c r="AC8" s="434"/>
+      <c r="AD8" s="439" t="s">
         <v>370</v>
       </c>
-      <c r="AE8" s="401"/>
-      <c r="AF8" s="402"/>
-      <c r="AG8" s="400" t="s">
+      <c r="AE8" s="433"/>
+      <c r="AF8" s="434"/>
+      <c r="AG8" s="439" t="s">
         <v>369</v>
       </c>
-      <c r="AH8" s="401"/>
-      <c r="AI8" s="402"/>
+      <c r="AH8" s="433"/>
+      <c r="AI8" s="434"/>
     </row>
     <row r="9" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F9" s="412" t="str">
+      <c r="F9" s="446" t="str">
         <f>E15</f>
         <v>ㆠ</v>
       </c>
-      <c r="G9" s="413"/>
-      <c r="H9" s="414"/>
-      <c r="I9" s="390" t="str">
+      <c r="G9" s="447"/>
+      <c r="H9" s="448"/>
+      <c r="I9" s="440" t="str">
         <f>K15</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="391"/>
-      <c r="K9" s="392"/>
-      <c r="L9" s="390" t="str">
+      <c r="J9" s="441"/>
+      <c r="K9" s="442"/>
+      <c r="L9" s="440" t="str">
         <f>P15</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="391"/>
-      <c r="N9" s="392"/>
-      <c r="O9" s="390" t="str">
+      <c r="M9" s="441"/>
+      <c r="N9" s="442"/>
+      <c r="O9" s="440" t="str">
         <f>T15</f>
         <v>ㄒ</v>
       </c>
-      <c r="P9" s="391"/>
-      <c r="Q9" s="392"/>
-      <c r="R9" s="412" t="str">
+      <c r="P9" s="441"/>
+      <c r="Q9" s="442"/>
+      <c r="R9" s="446" t="str">
         <f>V15 &amp; " " &amp; R15</f>
         <v>ㆡ ㆢ</v>
       </c>
-      <c r="S9" s="413"/>
-      <c r="T9" s="414"/>
-      <c r="U9" s="390" t="str">
+      <c r="S9" s="447"/>
+      <c r="T9" s="448"/>
+      <c r="U9" s="440" t="str">
         <f>X15</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="391"/>
-      <c r="W9" s="392"/>
-      <c r="X9" s="409" t="str">
+      <c r="V9" s="441"/>
+      <c r="W9" s="442"/>
+      <c r="X9" s="423" t="str">
         <f>Q21</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="410"/>
-      <c r="Z9" s="411"/>
-      <c r="AA9" s="423" t="str">
+      <c r="Y9" s="424"/>
+      <c r="Z9" s="425"/>
+      <c r="AA9" s="426" t="str">
         <f>O21 &amp; " " &amp; P21</f>
         <v>ㆰ ㆱ</v>
       </c>
-      <c r="AB9" s="424"/>
-      <c r="AC9" s="425"/>
-      <c r="AD9" s="409" t="str">
+      <c r="AB9" s="427"/>
+      <c r="AC9" s="428"/>
+      <c r="AD9" s="423" t="str">
         <f>U21</f>
         <v>ㆲ</v>
       </c>
-      <c r="AE9" s="410"/>
-      <c r="AF9" s="411"/>
-      <c r="AG9" s="396" t="str">
+      <c r="AE9" s="424"/>
+      <c r="AF9" s="425"/>
+      <c r="AG9" s="429" t="str">
         <f>W21</f>
         <v>ㆭ</v>
       </c>
-      <c r="AH9" s="397"/>
-      <c r="AI9" s="398"/>
+      <c r="AH9" s="430"/>
+      <c r="AI9" s="431"/>
       <c r="AL9" s="24" t="s">
         <v>372</v>
       </c>
@@ -33164,6 +33058,82 @@
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AP5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="X9:Z9"/>
     <mergeCell ref="AA9:AC9"/>
     <mergeCell ref="AD9:AF9"/>
@@ -33180,82 +33150,6 @@
     <mergeCell ref="AC6:AE6"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AP5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -33285,66 +33179,66 @@
   <sheetData>
     <row r="1" spans="3:42" ht="15" thickBot="1"/>
     <row r="2" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="386" t="s">
+      <c r="C2" s="463" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
-      <c r="F2" s="386" t="s">
+      <c r="D2" s="464"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="463" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="387"/>
-      <c r="H2" s="388"/>
-      <c r="I2" s="383" t="s">
+      <c r="G2" s="464"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="460" t="s">
         <v>388</v>
       </c>
-      <c r="J2" s="384"/>
-      <c r="K2" s="385"/>
-      <c r="L2" s="383" t="s">
+      <c r="J2" s="461"/>
+      <c r="K2" s="462"/>
+      <c r="L2" s="460" t="s">
         <v>389</v>
       </c>
-      <c r="M2" s="384"/>
-      <c r="N2" s="385"/>
-      <c r="O2" s="389" t="s">
+      <c r="M2" s="461"/>
+      <c r="N2" s="462"/>
+      <c r="O2" s="466" t="s">
         <v>390</v>
       </c>
-      <c r="P2" s="384"/>
-      <c r="Q2" s="385"/>
-      <c r="R2" s="383" t="s">
+      <c r="P2" s="461"/>
+      <c r="Q2" s="462"/>
+      <c r="R2" s="460" t="s">
         <v>391</v>
       </c>
-      <c r="S2" s="384"/>
-      <c r="T2" s="385"/>
-      <c r="U2" s="383" t="s">
+      <c r="S2" s="461"/>
+      <c r="T2" s="462"/>
+      <c r="U2" s="460" t="s">
         <v>392</v>
       </c>
-      <c r="V2" s="384"/>
-      <c r="W2" s="385"/>
-      <c r="X2" s="400" t="s">
+      <c r="V2" s="461"/>
+      <c r="W2" s="462"/>
+      <c r="X2" s="439" t="s">
         <v>393</v>
       </c>
-      <c r="Y2" s="401"/>
-      <c r="Z2" s="402"/>
-      <c r="AA2" s="400" t="s">
+      <c r="Y2" s="433"/>
+      <c r="Z2" s="434"/>
+      <c r="AA2" s="439" t="s">
         <v>394</v>
       </c>
-      <c r="AB2" s="401"/>
-      <c r="AC2" s="402"/>
-      <c r="AD2" s="400" t="s">
+      <c r="AB2" s="433"/>
+      <c r="AC2" s="434"/>
+      <c r="AD2" s="439" t="s">
         <v>395</v>
       </c>
-      <c r="AE2" s="401"/>
-      <c r="AF2" s="402"/>
-      <c r="AG2" s="400" t="s">
+      <c r="AE2" s="433"/>
+      <c r="AF2" s="434"/>
+      <c r="AG2" s="439" t="s">
         <v>384</v>
       </c>
-      <c r="AH2" s="401"/>
-      <c r="AI2" s="402"/>
-      <c r="AJ2" s="426" t="s">
+      <c r="AH2" s="433"/>
+      <c r="AI2" s="434"/>
+      <c r="AJ2" s="432" t="s">
         <v>385</v>
       </c>
-      <c r="AK2" s="401"/>
-      <c r="AL2" s="402"/>
+      <c r="AK2" s="433"/>
+      <c r="AL2" s="434"/>
     </row>
     <row r="3" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="C3" s="40"/>
@@ -33388,134 +33282,134 @@
       <c r="AL3" s="39"/>
     </row>
     <row r="4" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="C4" s="428" t="str">
+      <c r="C4" s="467" t="str">
         <f>D18</f>
         <v>ㄅ</v>
       </c>
-      <c r="D4" s="429"/>
-      <c r="E4" s="430"/>
-      <c r="F4" s="428" t="str">
+      <c r="D4" s="468"/>
+      <c r="E4" s="469"/>
+      <c r="F4" s="467" t="str">
         <f>H18</f>
         <v>ㄉ</v>
       </c>
-      <c r="G4" s="429"/>
-      <c r="H4" s="430"/>
-      <c r="I4" s="393" t="s">
+      <c r="G4" s="468"/>
+      <c r="H4" s="469"/>
+      <c r="I4" s="454" t="s">
         <v>377</v>
       </c>
-      <c r="J4" s="394"/>
-      <c r="K4" s="395"/>
-      <c r="L4" s="393" t="s">
+      <c r="J4" s="455"/>
+      <c r="K4" s="456"/>
+      <c r="L4" s="454" t="s">
         <v>376</v>
       </c>
-      <c r="M4" s="394"/>
-      <c r="N4" s="395"/>
-      <c r="O4" s="393" t="s">
+      <c r="M4" s="455"/>
+      <c r="N4" s="456"/>
+      <c r="O4" s="454" t="s">
         <v>379</v>
       </c>
-      <c r="P4" s="394"/>
-      <c r="Q4" s="395"/>
-      <c r="R4" s="393" t="s">
+      <c r="P4" s="455"/>
+      <c r="Q4" s="456"/>
+      <c r="R4" s="454" t="s">
         <v>378</v>
       </c>
-      <c r="S4" s="394"/>
-      <c r="T4" s="395"/>
-      <c r="U4" s="406" t="s">
+      <c r="S4" s="455"/>
+      <c r="T4" s="456"/>
+      <c r="U4" s="457" t="s">
         <v>380</v>
       </c>
-      <c r="V4" s="407"/>
-      <c r="W4" s="408"/>
-      <c r="X4" s="409" t="str">
+      <c r="V4" s="458"/>
+      <c r="W4" s="459"/>
+      <c r="X4" s="423" t="str">
         <f>D24</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y4" s="410"/>
-      <c r="Z4" s="411"/>
-      <c r="AA4" s="396" t="str">
+      <c r="Y4" s="424"/>
+      <c r="Z4" s="425"/>
+      <c r="AA4" s="429" t="str">
         <f xml:space="preserve"> K24</f>
         <v>ㄞ</v>
       </c>
-      <c r="AB4" s="397"/>
-      <c r="AC4" s="398"/>
-      <c r="AD4" s="396" t="str">
+      <c r="AB4" s="430"/>
+      <c r="AC4" s="431"/>
+      <c r="AD4" s="429" t="str">
         <f>R24</f>
         <v>ㄢ</v>
       </c>
-      <c r="AE4" s="397"/>
-      <c r="AF4" s="398"/>
-      <c r="AG4" s="399"/>
-      <c r="AH4" s="397"/>
-      <c r="AI4" s="398"/>
-      <c r="AJ4" s="399"/>
-      <c r="AK4" s="397"/>
-      <c r="AL4" s="398"/>
+      <c r="AE4" s="430"/>
+      <c r="AF4" s="431"/>
+      <c r="AG4" s="435"/>
+      <c r="AH4" s="430"/>
+      <c r="AI4" s="431"/>
+      <c r="AJ4" s="435"/>
+      <c r="AK4" s="430"/>
+      <c r="AL4" s="431"/>
     </row>
     <row r="5" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="D5" s="403" t="s">
+      <c r="D5" s="443" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="404"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="403" t="s">
+      <c r="E5" s="444"/>
+      <c r="F5" s="445"/>
+      <c r="G5" s="443" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="404"/>
-      <c r="I5" s="405"/>
-      <c r="J5" s="403" t="s">
+      <c r="H5" s="444"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="443" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="404"/>
-      <c r="L5" s="405"/>
-      <c r="M5" s="403" t="s">
+      <c r="K5" s="444"/>
+      <c r="L5" s="445"/>
+      <c r="M5" s="443" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="404"/>
-      <c r="O5" s="405"/>
-      <c r="P5" s="403" t="s">
+      <c r="N5" s="444"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="443" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="404"/>
-      <c r="R5" s="405"/>
-      <c r="S5" s="403" t="s">
+      <c r="Q5" s="444"/>
+      <c r="R5" s="445"/>
+      <c r="S5" s="443" t="s">
         <v>44</v>
       </c>
-      <c r="T5" s="404"/>
-      <c r="U5" s="405"/>
-      <c r="V5" s="415" t="s">
+      <c r="T5" s="444"/>
+      <c r="U5" s="445"/>
+      <c r="V5" s="436" t="s">
         <v>45</v>
       </c>
-      <c r="W5" s="416"/>
-      <c r="X5" s="417"/>
-      <c r="Y5" s="415" t="s">
+      <c r="W5" s="437"/>
+      <c r="X5" s="438"/>
+      <c r="Y5" s="436" t="s">
         <v>46</v>
       </c>
-      <c r="Z5" s="416"/>
-      <c r="AA5" s="417"/>
-      <c r="AB5" s="415" t="s">
+      <c r="Z5" s="437"/>
+      <c r="AA5" s="438"/>
+      <c r="AB5" s="436" t="s">
         <v>47</v>
       </c>
-      <c r="AC5" s="416"/>
-      <c r="AD5" s="417"/>
-      <c r="AE5" s="415" t="s">
+      <c r="AC5" s="437"/>
+      <c r="AD5" s="438"/>
+      <c r="AE5" s="436" t="s">
         <v>48</v>
       </c>
-      <c r="AF5" s="416"/>
-      <c r="AG5" s="417"/>
-      <c r="AH5" s="400" t="s">
+      <c r="AF5" s="437"/>
+      <c r="AG5" s="438"/>
+      <c r="AH5" s="439" t="s">
         <v>382</v>
       </c>
-      <c r="AI5" s="401"/>
-      <c r="AJ5" s="402"/>
-      <c r="AK5" s="400" t="s">
+      <c r="AI5" s="433"/>
+      <c r="AJ5" s="434"/>
+      <c r="AK5" s="439" t="s">
         <v>383</v>
       </c>
-      <c r="AL5" s="401"/>
-      <c r="AM5" s="402"/>
-      <c r="AN5" s="400" t="s">
+      <c r="AL5" s="433"/>
+      <c r="AM5" s="434"/>
+      <c r="AN5" s="439" t="s">
         <v>381</v>
       </c>
-      <c r="AO5" s="401"/>
-      <c r="AP5" s="402"/>
+      <c r="AO5" s="433"/>
+      <c r="AP5" s="434"/>
     </row>
     <row r="6" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="D6" s="31"/>
@@ -33565,124 +33459,124 @@
       <c r="AP6" s="39"/>
     </row>
     <row r="7" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="D7" s="390" t="str">
+      <c r="D7" s="440" t="str">
         <f>F18</f>
         <v>ㄆ</v>
       </c>
-      <c r="E7" s="391"/>
-      <c r="F7" s="392"/>
-      <c r="G7" s="390" t="str">
+      <c r="E7" s="441"/>
+      <c r="F7" s="442"/>
+      <c r="G7" s="440" t="str">
         <f>I18</f>
         <v>ㄊ</v>
       </c>
-      <c r="H7" s="391"/>
-      <c r="I7" s="392"/>
-      <c r="J7" s="428" t="str">
+      <c r="H7" s="441"/>
+      <c r="I7" s="442"/>
+      <c r="J7" s="467" t="str">
         <f>L18</f>
         <v>ㄍ</v>
       </c>
-      <c r="K7" s="429"/>
-      <c r="L7" s="430"/>
-      <c r="M7" s="390"/>
-      <c r="N7" s="391"/>
-      <c r="O7" s="392"/>
-      <c r="P7" s="412"/>
-      <c r="Q7" s="413"/>
-      <c r="R7" s="414"/>
-      <c r="S7" s="390" t="str">
+      <c r="K7" s="468"/>
+      <c r="L7" s="469"/>
+      <c r="M7" s="440"/>
+      <c r="N7" s="441"/>
+      <c r="O7" s="442"/>
+      <c r="P7" s="446"/>
+      <c r="Q7" s="447"/>
+      <c r="R7" s="448"/>
+      <c r="S7" s="440" t="str">
         <f>U18</f>
         <v>ㄗ</v>
       </c>
-      <c r="T7" s="391"/>
-      <c r="U7" s="392"/>
-      <c r="V7" s="409" t="str">
+      <c r="T7" s="441"/>
+      <c r="U7" s="442"/>
+      <c r="V7" s="423" t="str">
         <f>X24</f>
         <v>ㄧ</v>
       </c>
-      <c r="W7" s="410"/>
-      <c r="X7" s="411"/>
-      <c r="Y7" s="409" t="str">
+      <c r="W7" s="424"/>
+      <c r="X7" s="425"/>
+      <c r="Y7" s="423" t="str">
         <f>F24</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z7" s="410"/>
-      <c r="AA7" s="411"/>
-      <c r="AB7" s="409"/>
-      <c r="AC7" s="410"/>
-      <c r="AD7" s="411"/>
-      <c r="AE7" s="409" t="str">
+      <c r="Z7" s="424"/>
+      <c r="AA7" s="425"/>
+      <c r="AB7" s="423"/>
+      <c r="AC7" s="424"/>
+      <c r="AD7" s="425"/>
+      <c r="AE7" s="423" t="str">
         <f>S24</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF7" s="410"/>
-      <c r="AG7" s="411"/>
-      <c r="AH7" s="418"/>
-      <c r="AI7" s="419"/>
-      <c r="AJ7" s="420"/>
-      <c r="AK7" s="418"/>
-      <c r="AL7" s="419"/>
-      <c r="AM7" s="420"/>
-      <c r="AN7" s="418"/>
-      <c r="AO7" s="419"/>
-      <c r="AP7" s="420"/>
+      <c r="AF7" s="424"/>
+      <c r="AG7" s="425"/>
+      <c r="AH7" s="451"/>
+      <c r="AI7" s="452"/>
+      <c r="AJ7" s="453"/>
+      <c r="AK7" s="451"/>
+      <c r="AL7" s="452"/>
+      <c r="AM7" s="453"/>
+      <c r="AN7" s="451"/>
+      <c r="AO7" s="452"/>
+      <c r="AP7" s="453"/>
     </row>
     <row r="8" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="D8" s="3"/>
-      <c r="E8" s="403" t="s">
+      <c r="E8" s="443" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="404"/>
-      <c r="G8" s="405"/>
-      <c r="H8" s="403" t="s">
+      <c r="F8" s="444"/>
+      <c r="G8" s="445"/>
+      <c r="H8" s="443" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="404"/>
-      <c r="J8" s="405"/>
-      <c r="K8" s="403" t="s">
+      <c r="I8" s="444"/>
+      <c r="J8" s="445"/>
+      <c r="K8" s="443" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="404"/>
-      <c r="M8" s="405"/>
-      <c r="N8" s="403" t="s">
+      <c r="L8" s="444"/>
+      <c r="M8" s="445"/>
+      <c r="N8" s="443" t="s">
         <v>28</v>
       </c>
-      <c r="O8" s="404"/>
-      <c r="P8" s="405"/>
-      <c r="Q8" s="403" t="s">
+      <c r="O8" s="444"/>
+      <c r="P8" s="445"/>
+      <c r="Q8" s="443" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="404"/>
-      <c r="S8" s="405"/>
-      <c r="T8" s="403" t="s">
+      <c r="R8" s="444"/>
+      <c r="S8" s="445"/>
+      <c r="T8" s="443" t="s">
         <v>30</v>
       </c>
-      <c r="U8" s="404"/>
-      <c r="V8" s="405"/>
-      <c r="W8" s="415" t="s">
+      <c r="U8" s="444"/>
+      <c r="V8" s="445"/>
+      <c r="W8" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="X8" s="416"/>
-      <c r="Y8" s="417"/>
-      <c r="Z8" s="415" t="s">
+      <c r="X8" s="437"/>
+      <c r="Y8" s="438"/>
+      <c r="Z8" s="436" t="s">
         <v>32</v>
       </c>
-      <c r="AA8" s="416"/>
-      <c r="AB8" s="417"/>
-      <c r="AC8" s="415" t="s">
+      <c r="AA8" s="437"/>
+      <c r="AB8" s="438"/>
+      <c r="AC8" s="436" t="s">
         <v>33</v>
       </c>
-      <c r="AD8" s="416"/>
-      <c r="AE8" s="417"/>
-      <c r="AF8" s="400" t="s">
+      <c r="AD8" s="437"/>
+      <c r="AE8" s="438"/>
+      <c r="AF8" s="439" t="s">
         <v>373</v>
       </c>
-      <c r="AG8" s="401"/>
-      <c r="AH8" s="402"/>
-      <c r="AI8" s="400" t="s">
+      <c r="AG8" s="433"/>
+      <c r="AH8" s="434"/>
+      <c r="AI8" s="439" t="s">
         <v>375</v>
       </c>
-      <c r="AJ8" s="401"/>
-      <c r="AK8" s="402"/>
+      <c r="AJ8" s="433"/>
+      <c r="AK8" s="434"/>
     </row>
     <row r="9" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="D9" s="3"/>
@@ -33721,118 +33615,118 @@
       <c r="AK9" s="39"/>
     </row>
     <row r="10" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="E10" s="390" t="str">
+      <c r="E10" s="440" t="str">
         <f>G18</f>
         <v>ㄇ</v>
       </c>
-      <c r="F10" s="391"/>
-      <c r="G10" s="392"/>
-      <c r="H10" s="390" t="str">
+      <c r="F10" s="441"/>
+      <c r="G10" s="442"/>
+      <c r="H10" s="440" t="str">
         <f>J18</f>
         <v>ㄋ</v>
       </c>
-      <c r="I10" s="391"/>
-      <c r="J10" s="392"/>
-      <c r="K10" s="390" t="str">
+      <c r="I10" s="441"/>
+      <c r="J10" s="442"/>
+      <c r="K10" s="440" t="str">
         <f>N18</f>
         <v>ㄎ</v>
       </c>
-      <c r="L10" s="391"/>
-      <c r="M10" s="392"/>
-      <c r="N10" s="390"/>
-      <c r="O10" s="391"/>
-      <c r="P10" s="392"/>
-      <c r="Q10" s="421" t="str">
+      <c r="L10" s="441"/>
+      <c r="M10" s="442"/>
+      <c r="N10" s="440"/>
+      <c r="O10" s="441"/>
+      <c r="P10" s="442"/>
+      <c r="Q10" s="450" t="str">
         <f>O18</f>
         <v>ㄫ</v>
       </c>
-      <c r="R10" s="413"/>
-      <c r="S10" s="414"/>
-      <c r="T10" s="390" t="str">
+      <c r="R10" s="447"/>
+      <c r="S10" s="448"/>
+      <c r="T10" s="440" t="str">
         <f>W18</f>
         <v>ㄘ</v>
       </c>
-      <c r="U10" s="391"/>
-      <c r="V10" s="392"/>
-      <c r="W10" s="409" t="str">
+      <c r="U10" s="441"/>
+      <c r="V10" s="442"/>
+      <c r="W10" s="423" t="str">
         <f>Z24</f>
         <v>ㄨ</v>
       </c>
-      <c r="X10" s="410"/>
-      <c r="Y10" s="411"/>
-      <c r="Z10" s="409" t="str">
+      <c r="X10" s="424"/>
+      <c r="Y10" s="425"/>
+      <c r="Z10" s="423" t="str">
         <f>H24</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA10" s="410"/>
-      <c r="AB10" s="411"/>
-      <c r="AC10" s="422" t="str">
+      <c r="AA10" s="424"/>
+      <c r="AB10" s="425"/>
+      <c r="AC10" s="449" t="str">
         <f>M24</f>
         <v>ㄠ</v>
       </c>
-      <c r="AD10" s="410"/>
-      <c r="AE10" s="411"/>
-      <c r="AF10" s="396" t="str">
+      <c r="AD10" s="424"/>
+      <c r="AE10" s="425"/>
+      <c r="AF10" s="429" t="str">
         <f>T24</f>
         <v>ㄤ</v>
       </c>
-      <c r="AG10" s="397"/>
-      <c r="AH10" s="398"/>
-      <c r="AI10" s="396"/>
-      <c r="AJ10" s="397"/>
-      <c r="AK10" s="398"/>
+      <c r="AG10" s="430"/>
+      <c r="AH10" s="431"/>
+      <c r="AI10" s="429"/>
+      <c r="AJ10" s="430"/>
+      <c r="AK10" s="431"/>
     </row>
     <row r="11" spans="3:42" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="F11" s="403" t="s">
+      <c r="F11" s="443" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="404"/>
-      <c r="H11" s="405"/>
-      <c r="I11" s="403" t="s">
+      <c r="G11" s="444"/>
+      <c r="H11" s="445"/>
+      <c r="I11" s="443" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="404"/>
-      <c r="K11" s="405"/>
-      <c r="L11" s="403" t="s">
+      <c r="J11" s="444"/>
+      <c r="K11" s="445"/>
+      <c r="L11" s="443" t="s">
         <v>36</v>
       </c>
-      <c r="M11" s="404"/>
-      <c r="N11" s="405"/>
-      <c r="O11" s="403" t="s">
+      <c r="M11" s="444"/>
+      <c r="N11" s="445"/>
+      <c r="O11" s="443" t="s">
         <v>37</v>
       </c>
-      <c r="P11" s="404"/>
-      <c r="Q11" s="405"/>
-      <c r="R11" s="403" t="s">
+      <c r="P11" s="444"/>
+      <c r="Q11" s="445"/>
+      <c r="R11" s="443" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="404"/>
-      <c r="T11" s="405"/>
-      <c r="U11" s="403" t="s">
+      <c r="S11" s="444"/>
+      <c r="T11" s="445"/>
+      <c r="U11" s="443" t="s">
         <v>14</v>
       </c>
-      <c r="V11" s="404"/>
-      <c r="W11" s="405"/>
-      <c r="X11" s="415" t="s">
+      <c r="V11" s="444"/>
+      <c r="W11" s="445"/>
+      <c r="X11" s="436" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="416"/>
-      <c r="Z11" s="417"/>
-      <c r="AA11" s="400" t="s">
+      <c r="Y11" s="437"/>
+      <c r="Z11" s="438"/>
+      <c r="AA11" s="439" t="s">
         <v>371</v>
       </c>
-      <c r="AB11" s="401"/>
-      <c r="AC11" s="402"/>
-      <c r="AD11" s="400" t="s">
+      <c r="AB11" s="433"/>
+      <c r="AC11" s="434"/>
+      <c r="AD11" s="439" t="s">
         <v>370</v>
       </c>
-      <c r="AE11" s="401"/>
-      <c r="AF11" s="402"/>
-      <c r="AG11" s="400" t="s">
+      <c r="AE11" s="433"/>
+      <c r="AF11" s="434"/>
+      <c r="AG11" s="439" t="s">
         <v>369</v>
       </c>
-      <c r="AH11" s="401"/>
-      <c r="AI11" s="402"/>
+      <c r="AH11" s="433"/>
+      <c r="AI11" s="434"/>
     </row>
     <row r="12" spans="3:42" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="F12" s="31"/>
@@ -33867,52 +33761,52 @@
       <c r="AI12" s="39"/>
     </row>
     <row r="13" spans="3:42" s="23" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1">
-      <c r="F13" s="427"/>
-      <c r="G13" s="413"/>
-      <c r="H13" s="414"/>
-      <c r="I13" s="390" t="str">
+      <c r="F13" s="470"/>
+      <c r="G13" s="447"/>
+      <c r="H13" s="448"/>
+      <c r="I13" s="440" t="str">
         <f>K18</f>
         <v>ㄌ</v>
       </c>
-      <c r="J13" s="391"/>
-      <c r="K13" s="392"/>
-      <c r="L13" s="428" t="str">
+      <c r="J13" s="441"/>
+      <c r="K13" s="442"/>
+      <c r="L13" s="467" t="str">
         <f>P18</f>
         <v>ㄏ</v>
       </c>
-      <c r="M13" s="429"/>
-      <c r="N13" s="430"/>
-      <c r="O13" s="390"/>
-      <c r="P13" s="391"/>
-      <c r="Q13" s="392"/>
-      <c r="R13" s="412"/>
-      <c r="S13" s="413"/>
-      <c r="T13" s="414"/>
-      <c r="U13" s="390" t="str">
+      <c r="M13" s="468"/>
+      <c r="N13" s="469"/>
+      <c r="O13" s="440"/>
+      <c r="P13" s="441"/>
+      <c r="Q13" s="442"/>
+      <c r="R13" s="446"/>
+      <c r="S13" s="447"/>
+      <c r="T13" s="448"/>
+      <c r="U13" s="440" t="str">
         <f>X18</f>
         <v>ㄙ</v>
       </c>
-      <c r="V13" s="391"/>
-      <c r="W13" s="392"/>
-      <c r="X13" s="423" t="str">
+      <c r="V13" s="441"/>
+      <c r="W13" s="442"/>
+      <c r="X13" s="426" t="str">
         <f>Q24</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y13" s="424"/>
-      <c r="Z13" s="425"/>
-      <c r="AA13" s="409" t="s">
+      <c r="Y13" s="427"/>
+      <c r="Z13" s="428"/>
+      <c r="AA13" s="423" t="s">
         <v>407</v>
       </c>
-      <c r="AB13" s="410"/>
-      <c r="AC13" s="411"/>
-      <c r="AD13" s="409"/>
-      <c r="AE13" s="410"/>
-      <c r="AF13" s="411"/>
-      <c r="AG13" s="396" t="s">
+      <c r="AB13" s="424"/>
+      <c r="AC13" s="425"/>
+      <c r="AD13" s="423"/>
+      <c r="AE13" s="424"/>
+      <c r="AF13" s="425"/>
+      <c r="AG13" s="429" t="s">
         <v>408</v>
       </c>
-      <c r="AH13" s="397"/>
-      <c r="AI13" s="398"/>
+      <c r="AH13" s="430"/>
+      <c r="AI13" s="431"/>
       <c r="AL13" s="24" t="s">
         <v>372</v>
       </c>
@@ -34490,36 +34384,52 @@
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="X13:Z13"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AI13"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="R11:T11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="R13:T13"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AC8:AE8"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AP7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="T8:V8"/>
     <mergeCell ref="AN5:AP5"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -34536,52 +34446,36 @@
     <mergeCell ref="AE5:AG5"/>
     <mergeCell ref="AH5:AJ5"/>
     <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AP7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AC8:AE8"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="R11:T11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="R13:T13"/>
-    <mergeCell ref="X13:Z13"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AI13"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AI11"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -34658,66 +34552,66 @@
     </row>
     <row r="2" spans="1:64" s="228" customFormat="1" ht="36" customHeight="1" thickBot="1">
       <c r="A2" s="226"/>
-      <c r="B2" s="434" t="s">
+      <c r="B2" s="477" t="s">
         <v>759</v>
       </c>
-      <c r="C2" s="435"/>
-      <c r="D2" s="436"/>
-      <c r="E2" s="434" t="s">
+      <c r="C2" s="478"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="477" t="s">
         <v>443</v>
       </c>
-      <c r="F2" s="435"/>
-      <c r="G2" s="436"/>
-      <c r="H2" s="431" t="s">
+      <c r="F2" s="478"/>
+      <c r="G2" s="479"/>
+      <c r="H2" s="484" t="s">
         <v>444</v>
       </c>
-      <c r="I2" s="432"/>
-      <c r="J2" s="433"/>
-      <c r="K2" s="431" t="s">
+      <c r="I2" s="485"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="484" t="s">
         <v>445</v>
       </c>
-      <c r="L2" s="432"/>
-      <c r="M2" s="433"/>
-      <c r="N2" s="437">
+      <c r="L2" s="485"/>
+      <c r="M2" s="486"/>
+      <c r="N2" s="487">
         <v>0.05</v>
       </c>
-      <c r="O2" s="438"/>
-      <c r="P2" s="439"/>
-      <c r="Q2" s="431" t="s">
+      <c r="O2" s="488"/>
+      <c r="P2" s="489"/>
+      <c r="Q2" s="484" t="s">
         <v>447</v>
       </c>
-      <c r="R2" s="432"/>
-      <c r="S2" s="433"/>
-      <c r="T2" s="431" t="s">
+      <c r="R2" s="485"/>
+      <c r="S2" s="486"/>
+      <c r="T2" s="484" t="s">
         <v>448</v>
       </c>
-      <c r="U2" s="432"/>
-      <c r="V2" s="433"/>
-      <c r="W2" s="442" t="s">
+      <c r="U2" s="485"/>
+      <c r="V2" s="486"/>
+      <c r="W2" s="471" t="s">
         <v>760</v>
       </c>
-      <c r="X2" s="443"/>
-      <c r="Y2" s="444"/>
-      <c r="Z2" s="442" t="s">
+      <c r="X2" s="472"/>
+      <c r="Y2" s="473"/>
+      <c r="Z2" s="471" t="s">
         <v>761</v>
       </c>
-      <c r="AA2" s="443"/>
-      <c r="AB2" s="444"/>
-      <c r="AC2" s="442" t="s">
+      <c r="AA2" s="472"/>
+      <c r="AB2" s="473"/>
+      <c r="AC2" s="471" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" s="443"/>
-      <c r="AE2" s="444"/>
-      <c r="AF2" s="445" t="s">
+      <c r="AD2" s="472"/>
+      <c r="AE2" s="473"/>
+      <c r="AF2" s="474" t="s">
         <v>452</v>
       </c>
-      <c r="AG2" s="446"/>
-      <c r="AH2" s="447"/>
-      <c r="AI2" s="445" t="s">
+      <c r="AG2" s="475"/>
+      <c r="AH2" s="476"/>
+      <c r="AI2" s="474" t="s">
         <v>453</v>
       </c>
-      <c r="AJ2" s="446"/>
-      <c r="AK2" s="447"/>
+      <c r="AJ2" s="475"/>
+      <c r="AK2" s="476"/>
       <c r="AL2" s="226"/>
       <c r="AM2" s="226"/>
       <c r="AN2" s="226"/>
@@ -34833,38 +34727,38 @@
       <c r="G4" s="238" t="s">
         <v>167</v>
       </c>
-      <c r="H4" s="448" t="s">
+      <c r="H4" s="482" t="s">
         <v>755</v>
       </c>
-      <c r="I4" s="449"/>
+      <c r="I4" s="483"/>
       <c r="J4" s="239" t="s">
         <v>765</v>
       </c>
-      <c r="K4" s="448" t="s">
+      <c r="K4" s="482" t="s">
         <v>569</v>
       </c>
-      <c r="L4" s="449"/>
+      <c r="L4" s="483"/>
       <c r="M4" s="239" t="s">
         <v>459</v>
       </c>
-      <c r="N4" s="448" t="s">
+      <c r="N4" s="482" t="s">
         <v>756</v>
       </c>
-      <c r="O4" s="449"/>
+      <c r="O4" s="483"/>
       <c r="P4" s="239" t="s">
         <v>766</v>
       </c>
-      <c r="Q4" s="448" t="s">
+      <c r="Q4" s="482" t="s">
         <v>571</v>
       </c>
-      <c r="R4" s="449"/>
+      <c r="R4" s="483"/>
       <c r="S4" s="239" t="s">
         <v>461</v>
       </c>
-      <c r="T4" s="448" t="s">
+      <c r="T4" s="482" t="s">
         <v>767</v>
       </c>
-      <c r="U4" s="449"/>
+      <c r="U4" s="483"/>
       <c r="V4" s="239" t="s">
         <v>768</v>
       </c>
@@ -34899,8 +34793,8 @@
       <c r="AH4" s="244" t="s">
         <v>770</v>
       </c>
-      <c r="AI4" s="440"/>
-      <c r="AJ4" s="441"/>
+      <c r="AI4" s="480"/>
+      <c r="AJ4" s="481"/>
       <c r="AK4" s="246"/>
       <c r="AL4" s="234"/>
       <c r="AM4" s="234"/>
@@ -34936,71 +34830,71 @@
     <row r="5" spans="1:64" s="228" customFormat="1" ht="36" customHeight="1">
       <c r="A5" s="226"/>
       <c r="B5" s="226"/>
-      <c r="C5" s="434" t="s">
+      <c r="C5" s="477" t="s">
         <v>465</v>
       </c>
-      <c r="D5" s="435"/>
-      <c r="E5" s="436"/>
-      <c r="F5" s="434" t="s">
+      <c r="D5" s="478"/>
+      <c r="E5" s="479"/>
+      <c r="F5" s="477" t="s">
         <v>466</v>
       </c>
-      <c r="G5" s="435"/>
-      <c r="H5" s="436"/>
-      <c r="I5" s="434" t="s">
+      <c r="G5" s="478"/>
+      <c r="H5" s="479"/>
+      <c r="I5" s="477" t="s">
         <v>546</v>
       </c>
-      <c r="J5" s="435"/>
-      <c r="K5" s="436"/>
-      <c r="L5" s="434" t="s">
+      <c r="J5" s="478"/>
+      <c r="K5" s="479"/>
+      <c r="L5" s="477" t="s">
         <v>468</v>
       </c>
-      <c r="M5" s="435"/>
-      <c r="N5" s="436"/>
-      <c r="O5" s="434" t="s">
+      <c r="M5" s="478"/>
+      <c r="N5" s="479"/>
+      <c r="O5" s="477" t="s">
         <v>299</v>
       </c>
-      <c r="P5" s="435"/>
-      <c r="Q5" s="436"/>
-      <c r="R5" s="434" t="s">
+      <c r="P5" s="478"/>
+      <c r="Q5" s="479"/>
+      <c r="R5" s="477" t="s">
         <v>771</v>
       </c>
-      <c r="S5" s="435"/>
-      <c r="T5" s="436"/>
-      <c r="U5" s="442" t="s">
+      <c r="S5" s="478"/>
+      <c r="T5" s="479"/>
+      <c r="U5" s="471" t="s">
         <v>315</v>
       </c>
-      <c r="V5" s="443"/>
-      <c r="W5" s="444"/>
-      <c r="X5" s="442" t="s">
+      <c r="V5" s="472"/>
+      <c r="W5" s="473"/>
+      <c r="X5" s="471" t="s">
         <v>313</v>
       </c>
-      <c r="Y5" s="443"/>
-      <c r="Z5" s="444"/>
-      <c r="AA5" s="442" t="s">
+      <c r="Y5" s="472"/>
+      <c r="Z5" s="473"/>
+      <c r="AA5" s="471" t="s">
         <v>472</v>
       </c>
-      <c r="AB5" s="443"/>
-      <c r="AC5" s="444"/>
-      <c r="AD5" s="442" t="s">
+      <c r="AB5" s="472"/>
+      <c r="AC5" s="473"/>
+      <c r="AD5" s="471" t="s">
         <v>297</v>
       </c>
-      <c r="AE5" s="443"/>
-      <c r="AF5" s="444"/>
-      <c r="AG5" s="442" t="s">
+      <c r="AE5" s="472"/>
+      <c r="AF5" s="473"/>
+      <c r="AG5" s="471" t="s">
         <v>473</v>
       </c>
-      <c r="AH5" s="443"/>
-      <c r="AI5" s="444"/>
-      <c r="AJ5" s="442" t="s">
+      <c r="AH5" s="472"/>
+      <c r="AI5" s="473"/>
+      <c r="AJ5" s="471" t="s">
         <v>474</v>
       </c>
-      <c r="AK5" s="443"/>
-      <c r="AL5" s="444"/>
-      <c r="AM5" s="445" t="s">
+      <c r="AK5" s="472"/>
+      <c r="AL5" s="473"/>
+      <c r="AM5" s="474" t="s">
         <v>475</v>
       </c>
-      <c r="AN5" s="446"/>
-      <c r="AO5" s="447"/>
+      <c r="AN5" s="475"/>
+      <c r="AO5" s="476"/>
       <c r="AP5" s="226"/>
       <c r="AQ5" s="226"/>
       <c r="AR5" s="227"/>
@@ -35196,14 +35090,14 @@
       <c r="AF7" s="244" t="s">
         <v>772</v>
       </c>
-      <c r="AG7" s="440"/>
-      <c r="AH7" s="441"/>
+      <c r="AG7" s="480"/>
+      <c r="AH7" s="481"/>
       <c r="AI7" s="246"/>
-      <c r="AJ7" s="440"/>
-      <c r="AK7" s="441"/>
+      <c r="AJ7" s="480"/>
+      <c r="AK7" s="481"/>
       <c r="AL7" s="246"/>
-      <c r="AM7" s="440"/>
-      <c r="AN7" s="441"/>
+      <c r="AM7" s="480"/>
+      <c r="AN7" s="481"/>
       <c r="AO7" s="246"/>
       <c r="AP7" s="234"/>
       <c r="AQ7" s="234"/>
@@ -35237,61 +35131,61 @@
       <c r="A8" s="226"/>
       <c r="B8" s="226"/>
       <c r="C8" s="253"/>
-      <c r="D8" s="434" t="s">
+      <c r="D8" s="477" t="s">
         <v>480</v>
       </c>
-      <c r="E8" s="435"/>
-      <c r="F8" s="436"/>
-      <c r="G8" s="434" t="s">
+      <c r="E8" s="478"/>
+      <c r="F8" s="479"/>
+      <c r="G8" s="477" t="s">
         <v>481</v>
       </c>
-      <c r="H8" s="435"/>
-      <c r="I8" s="436"/>
-      <c r="J8" s="434" t="s">
+      <c r="H8" s="478"/>
+      <c r="I8" s="479"/>
+      <c r="J8" s="477" t="s">
         <v>321</v>
       </c>
-      <c r="K8" s="435"/>
-      <c r="L8" s="436"/>
-      <c r="M8" s="434" t="s">
+      <c r="K8" s="478"/>
+      <c r="L8" s="479"/>
+      <c r="M8" s="477" t="s">
         <v>482</v>
       </c>
-      <c r="N8" s="435"/>
-      <c r="O8" s="436"/>
-      <c r="P8" s="434" t="s">
+      <c r="N8" s="478"/>
+      <c r="O8" s="479"/>
+      <c r="P8" s="477" t="s">
         <v>325</v>
       </c>
-      <c r="Q8" s="435"/>
-      <c r="R8" s="436"/>
-      <c r="S8" s="434" t="s">
+      <c r="Q8" s="478"/>
+      <c r="R8" s="479"/>
+      <c r="S8" s="477" t="s">
         <v>483</v>
       </c>
-      <c r="T8" s="435"/>
-      <c r="U8" s="436"/>
-      <c r="V8" s="442" t="s">
+      <c r="T8" s="478"/>
+      <c r="U8" s="479"/>
+      <c r="V8" s="471" t="s">
         <v>773</v>
       </c>
-      <c r="W8" s="443"/>
-      <c r="X8" s="444"/>
-      <c r="Y8" s="442" t="s">
+      <c r="W8" s="472"/>
+      <c r="X8" s="473"/>
+      <c r="Y8" s="471" t="s">
         <v>302</v>
       </c>
-      <c r="Z8" s="443"/>
-      <c r="AA8" s="444"/>
-      <c r="AB8" s="442" t="s">
+      <c r="Z8" s="472"/>
+      <c r="AA8" s="473"/>
+      <c r="AB8" s="471" t="s">
         <v>774</v>
       </c>
-      <c r="AC8" s="443"/>
-      <c r="AD8" s="444"/>
-      <c r="AE8" s="442" t="s">
+      <c r="AC8" s="472"/>
+      <c r="AD8" s="473"/>
+      <c r="AE8" s="471" t="s">
         <v>486</v>
       </c>
-      <c r="AF8" s="443"/>
-      <c r="AG8" s="444"/>
-      <c r="AH8" s="445" t="s">
+      <c r="AF8" s="472"/>
+      <c r="AG8" s="473"/>
+      <c r="AH8" s="474" t="s">
         <v>487</v>
       </c>
-      <c r="AI8" s="446"/>
-      <c r="AJ8" s="447"/>
+      <c r="AI8" s="475"/>
+      <c r="AJ8" s="476"/>
       <c r="AK8" s="226"/>
       <c r="AL8" s="226"/>
       <c r="AM8" s="226"/>
@@ -35474,8 +35368,8 @@
       <c r="AG10" s="244" t="s">
         <v>341</v>
       </c>
-      <c r="AH10" s="440"/>
-      <c r="AI10" s="441"/>
+      <c r="AH10" s="480"/>
+      <c r="AI10" s="481"/>
       <c r="AJ10" s="246"/>
       <c r="AK10" s="234"/>
       <c r="AL10" s="234"/>
@@ -35515,56 +35409,56 @@
       <c r="B11" s="226"/>
       <c r="C11" s="226"/>
       <c r="D11" s="226"/>
-      <c r="E11" s="434" t="s">
+      <c r="E11" s="477" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="435"/>
-      <c r="G11" s="436"/>
-      <c r="H11" s="434" t="s">
+      <c r="F11" s="478"/>
+      <c r="G11" s="479"/>
+      <c r="H11" s="477" t="s">
         <v>493</v>
       </c>
-      <c r="I11" s="435"/>
-      <c r="J11" s="436"/>
-      <c r="K11" s="434" t="s">
+      <c r="I11" s="478"/>
+      <c r="J11" s="479"/>
+      <c r="K11" s="477" t="s">
         <v>306</v>
       </c>
-      <c r="L11" s="435"/>
-      <c r="M11" s="436"/>
-      <c r="N11" s="434" t="s">
+      <c r="L11" s="478"/>
+      <c r="M11" s="479"/>
+      <c r="N11" s="477" t="s">
         <v>494</v>
       </c>
-      <c r="O11" s="435"/>
-      <c r="P11" s="436"/>
-      <c r="Q11" s="434" t="s">
+      <c r="O11" s="478"/>
+      <c r="P11" s="479"/>
+      <c r="Q11" s="477" t="s">
         <v>319</v>
       </c>
-      <c r="R11" s="435"/>
-      <c r="S11" s="436"/>
-      <c r="T11" s="434" t="s">
+      <c r="R11" s="478"/>
+      <c r="S11" s="479"/>
+      <c r="T11" s="477" t="s">
         <v>495</v>
       </c>
-      <c r="U11" s="435"/>
-      <c r="V11" s="436"/>
-      <c r="W11" s="442" t="s">
+      <c r="U11" s="478"/>
+      <c r="V11" s="479"/>
+      <c r="W11" s="471" t="s">
         <v>496</v>
       </c>
-      <c r="X11" s="443"/>
-      <c r="Y11" s="444"/>
-      <c r="Z11" s="442" t="s">
+      <c r="X11" s="472"/>
+      <c r="Y11" s="473"/>
+      <c r="Z11" s="471" t="s">
         <v>775</v>
       </c>
-      <c r="AA11" s="443"/>
-      <c r="AB11" s="444"/>
-      <c r="AC11" s="442" t="s">
+      <c r="AA11" s="472"/>
+      <c r="AB11" s="473"/>
+      <c r="AC11" s="471" t="s">
         <v>498</v>
       </c>
-      <c r="AD11" s="443"/>
-      <c r="AE11" s="444"/>
-      <c r="AF11" s="445" t="s">
+      <c r="AD11" s="472"/>
+      <c r="AE11" s="473"/>
+      <c r="AF11" s="474" t="s">
         <v>499</v>
       </c>
-      <c r="AG11" s="446"/>
-      <c r="AH11" s="447"/>
+      <c r="AG11" s="475"/>
+      <c r="AH11" s="476"/>
       <c r="AI11" s="226"/>
       <c r="AJ11" s="226"/>
       <c r="AK11" s="226"/>
@@ -40233,6 +40127,52 @@
     </row>
   </sheetData>
   <mergeCells count="56">
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH10:AI10"/>
+    <mergeCell ref="AM5:AO5"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AJ7:AK7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="Z11:AB11"/>
     <mergeCell ref="AC11:AE11"/>
@@ -40243,52 +40183,6 @@
     <mergeCell ref="N11:P11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="AH10:AI10"/>
-    <mergeCell ref="AM5:AO5"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AJ7:AK7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="X5:Z5"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="34" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40344,7 +40238,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="38.25" customHeight="1">
-      <c r="B3" s="450" t="s">
+      <c r="B3" s="490" t="s">
         <v>582</v>
       </c>
       <c r="C3" s="150" t="s">
@@ -40378,7 +40272,7 @@
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="450"/>
+      <c r="B4" s="490"/>
       <c r="C4" s="151" t="s">
         <v>74</v>
       </c>
@@ -40406,7 +40300,7 @@
       </c>
     </row>
     <row r="5" spans="2:13">
-      <c r="B5" s="450"/>
+      <c r="B5" s="490"/>
       <c r="C5" s="151" t="s">
         <v>75</v>
       </c>
@@ -40434,7 +40328,7 @@
       </c>
     </row>
     <row r="6" spans="2:13">
-      <c r="B6" s="450"/>
+      <c r="B6" s="490"/>
       <c r="C6" s="152" t="s">
         <v>76</v>
       </c>
@@ -40462,7 +40356,7 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="450" t="s">
+      <c r="B7" s="490" t="s">
         <v>583</v>
       </c>
       <c r="C7" s="150" t="s">
@@ -40492,7 +40386,7 @@
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="450"/>
+      <c r="B8" s="490"/>
       <c r="C8" s="151" t="s">
         <v>78</v>
       </c>
@@ -40520,7 +40414,7 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="450"/>
+      <c r="B9" s="490"/>
       <c r="C9" s="151" t="s">
         <v>681</v>
       </c>
@@ -40548,7 +40442,7 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="450"/>
+      <c r="B10" s="490"/>
       <c r="C10" s="152" t="s">
         <v>81</v>
       </c>
@@ -40576,7 +40470,7 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="450" t="s">
+      <c r="B11" s="490" t="s">
         <v>584</v>
       </c>
       <c r="C11" s="150" t="s">
@@ -40606,7 +40500,7 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="450"/>
+      <c r="B12" s="490"/>
       <c r="C12" s="151" t="s">
         <v>84</v>
       </c>
@@ -40634,7 +40528,7 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="450"/>
+      <c r="B13" s="490"/>
       <c r="C13" s="151" t="s">
         <v>623</v>
       </c>
@@ -40662,7 +40556,7 @@
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="450" t="s">
+      <c r="B14" s="490" t="s">
         <v>583</v>
       </c>
       <c r="C14" s="152" t="s">
@@ -40692,7 +40586,7 @@
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="450"/>
+      <c r="B15" s="490"/>
       <c r="C15" s="153" t="s">
         <v>91</v>
       </c>
@@ -40720,7 +40614,7 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="450"/>
+      <c r="B16" s="490"/>
       <c r="C16" s="154" t="s">
         <v>93</v>
       </c>
@@ -40748,7 +40642,7 @@
       </c>
     </row>
     <row r="17" spans="2:11">
-      <c r="B17" s="450"/>
+      <c r="B17" s="490"/>
       <c r="C17" s="154" t="s">
         <v>94</v>
       </c>
